--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_22_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_22_17.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>252710.9663205919</v>
+        <v>252710.966320592</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21627516.13603006</v>
+        <v>21627516.13603005</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3696239.841504126</v>
+        <v>3696239.841504127</v>
       </c>
     </row>
     <row r="11">
@@ -1379,19 +1379,19 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>22.12464380660836</v>
+        <v>22.12464380660868</v>
       </c>
       <c r="G11" t="n">
-        <v>63.54393718438487</v>
+        <v>63.54393718438497</v>
       </c>
       <c r="H11" t="n">
-        <v>63.54393718438487</v>
+        <v>63.54393718438497</v>
       </c>
       <c r="I11" t="n">
-        <v>63.54393718438487</v>
+        <v>63.54393718438497</v>
       </c>
       <c r="J11" t="n">
-        <v>33.12795564134782</v>
+        <v>33.12795564134777</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1464,13 +1464,13 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>63.54393718438497</v>
       </c>
       <c r="I12" t="n">
-        <v>17.23079022205108</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>38.73870964995511</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1509,13 +1509,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>63.54393718438487</v>
+        <v>63.54393718438497</v>
       </c>
       <c r="X12" t="n">
-        <v>63.54393718438487</v>
+        <v>63.54393718438497</v>
       </c>
       <c r="Y12" t="n">
-        <v>63.54393718438487</v>
+        <v>55.96949987200627</v>
       </c>
     </row>
     <row r="13">
@@ -1604,16 +1604,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>63.54393718438487</v>
+        <v>63.54393718438497</v>
       </c>
       <c r="C14" t="n">
-        <v>22.12464380660836</v>
+        <v>63.54393718438497</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>63.54393718438497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>22.12464380660872</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1628,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>33.12795564134782</v>
+        <v>33.12795564134777</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1667,13 +1667,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>63.54393718438487</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>63.54393718438487</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1686,28 +1686,28 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>63.54393718438487</v>
+        <v>63.54393718438497</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>17.23079022205119</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>63.54393718438497</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>17.23079022205107</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>63.54393718438487</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>63.54393718438487</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>38.73870964995511</v>
+        <v>38.73870964995508</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1749,7 +1749,7 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>63.54393718438497</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1853,19 +1853,19 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>22.12464380660836</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>63.54393718438487</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>63.54393718438487</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>63.54393718438487</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>33.12795564134782</v>
+        <v>21.14967429983988</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1886,16 +1886,16 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>34.10292514811658</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>63.54393718438497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>63.54393718438497</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>63.54393718438497</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>63.54393718438497</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1938,13 +1938,13 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>63.54393718438497</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>35.01798811616321</v>
       </c>
       <c r="J18" t="n">
-        <v>38.73870964995511</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1965,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>20.95151175584304</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -1980,16 +1980,16 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>63.54393718438487</v>
+        <v>63.54393718438497</v>
       </c>
       <c r="W18" t="n">
-        <v>63.54393718438487</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>63.54393718438487</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>17.23079022205108</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2090,19 +2090,19 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>75.67415048633357</v>
       </c>
       <c r="G20" t="n">
-        <v>75.67415048633345</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>9.511648015242322</v>
+        <v>9.51164801524256</v>
       </c>
       <c r="I20" t="n">
-        <v>75.67415048633345</v>
+        <v>75.67415048633357</v>
       </c>
       <c r="J20" t="n">
-        <v>33.12795564134782</v>
+        <v>33.12795564134777</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2138,10 +2138,10 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>75.67415048633345</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>75.67415048633357</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2157,22 +2157,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>6.963570342564444</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>75.67415048633357</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>75.67415048633345</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>75.67415048633345</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>75.67415048633357</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2181,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>38.73870964995508</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2202,16 +2202,16 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>20.95151175584304</v>
       </c>
       <c r="R21" t="n">
-        <v>66.65379174836249</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>75.67415048633357</v>
       </c>
       <c r="T21" t="n">
-        <v>75.67415048633345</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2318,16 +2318,16 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>30.7526954117969</v>
       </c>
       <c r="D23" t="n">
-        <v>81.55904985996256</v>
+        <v>81.55904985996267</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>81.55904985996256</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>81.55904985996256</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>30.75269541179667</v>
+        <v>81.55904985996267</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2384,7 +2384,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>81.55904985996267</v>
       </c>
     </row>
     <row r="24">
@@ -2409,7 +2409,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>71.83721111665498</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2448,22 +2448,22 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>81.55904985996256</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>81.55904985996267</v>
       </c>
       <c r="W24" t="n">
-        <v>81.55904985996256</v>
+        <v>71.8372111166551</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>81.55904985996267</v>
       </c>
       <c r="Y24" t="n">
-        <v>81.55904985996256</v>
+        <v>81.55904985996267</v>
       </c>
     </row>
     <row r="25">
@@ -2567,16 +2567,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>81.55904985996256</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>81.55904985996256</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>81.55904985996256</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>30.75269541179667</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2597,16 +2597,16 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>34.10292514811658</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>81.55904985996267</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>78.20882012364298</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>81.55904985996267</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2634,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>81.55904985996256</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2676,31 +2676,31 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>20.95151175584309</v>
+        <v>20.95151175584304</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>81.55904985996267</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>81.55904985996267</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>81.55904985996267</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>50.88569936081203</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>81.55904985996256</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>81.55904985996256</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>50.88569936081193</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2801,16 +2801,16 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>30.75269541179667</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>81.55904985996256</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>81.55904985996256</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>81.55904985996256</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>81.55904985996267</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2852,13 +2852,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>81.55904985996267</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>81.55904985996267</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>30.75269541179689</v>
       </c>
     </row>
     <row r="30">
@@ -2883,13 +2883,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>81.55904985996267</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>81.55904985996267</v>
       </c>
       <c r="I30" t="n">
-        <v>67.41725495561089</v>
+        <v>50.88569936081203</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2913,28 +2913,28 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>4.419956161044123</v>
+        <v>20.95151175584304</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>81.55904985996256</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>81.55904985996256</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>81.55904985996256</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>81.55904985996267</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -3035,22 +3035,22 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>81.55904985996267</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>79.1837896304114</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>81.55904985996256</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>81.55904985996256</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>33.12795564134782</v>
+        <v>30.75269541179689</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3089,13 +3089,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>81.55904985996267</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>81.55904985996267</v>
       </c>
     </row>
     <row r="33">
@@ -3105,25 +3105,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>81.55904985996256</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>81.55904985996256</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>50.88569936081193</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>81.55904985996267</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>81.55904985996267</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3150,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>20.95151175584309</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -3162,19 +3162,19 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>71.8372111166551</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>81.55904985996267</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>81.55904985996256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3263,16 +3263,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>63.54393718438507</v>
+        <v>63.54393718438499</v>
       </c>
       <c r="C35" t="n">
-        <v>63.54393718438507</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>63.54393718438507</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3284,7 +3284,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>63.54393718438499</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3311,7 +3311,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>63.54393718438499</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3332,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>55.25259944795603</v>
+        <v>55.25259944795651</v>
       </c>
     </row>
     <row r="36">
@@ -3348,7 +3348,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>63.54393718438499</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -3357,13 +3357,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>55.96949987200637</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>55.9694998720063</v>
       </c>
       <c r="I36" t="n">
-        <v>63.54393718438507</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3399,13 +3399,13 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>63.54393718438507</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>63.54393718438507</v>
+        <v>63.54393718438499</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>63.54393718438499</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3500,16 +3500,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>63.54393718438487</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>22.12464380660876</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>63.54393718438499</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3518,13 +3518,13 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>55.25259944795619</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>33.12795564134777</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>63.54393718438499</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3560,16 +3560,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>63.54393718438499</v>
       </c>
       <c r="W38" t="n">
-        <v>63.54393718438487</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>63.54393718438487</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3630,25 +3630,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>63.54393718438499</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>63.54393718438499</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>63.54393718438499</v>
       </c>
       <c r="V39" t="n">
-        <v>63.54393718438487</v>
+        <v>55.9694998720063</v>
       </c>
       <c r="W39" t="n">
-        <v>63.54393718438487</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>63.54393718438487</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>55.96949987200619</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3740,7 +3740,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>55.25259944795619</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3758,7 +3758,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>63.54393718438487</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3782,25 +3782,25 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>34.10292514811658</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>63.54393718438499</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>63.54393718438499</v>
       </c>
       <c r="T41" t="n">
-        <v>63.54393718438487</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>63.54393718438487</v>
+        <v>21.14967429983994</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>63.54393718438499</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>55.9694998720063</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3837,10 +3837,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>63.54393718438487</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>38.73870964995511</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3861,19 +3861,19 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>17.23079022205107</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>63.54393718438487</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>63.54393718438487</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>63.54393718438499</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -3882,10 +3882,10 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>63.54393718438499</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>63.54393718438499</v>
       </c>
     </row>
     <row r="43">
@@ -3980,7 +3980,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>51.41372388243628</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -4031,16 +4031,16 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>45.28520799564988</v>
+        <v>51.41372388243637</v>
       </c>
       <c r="V44" t="n">
-        <v>51.41372388243628</v>
+        <v>51.41372388243637</v>
       </c>
       <c r="W44" t="n">
-        <v>51.41372388243628</v>
+        <v>45.28520799564996</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>51.41372388243637</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4059,7 +4059,7 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>51.41372388243637</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4098,31 +4098,31 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>20.95151175584304</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>24.33369623980692</v>
       </c>
       <c r="S45" t="n">
-        <v>51.41372388243628</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>51.41372388243628</v>
+        <v>51.41372388243637</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>51.41372388243637</v>
       </c>
       <c r="W45" t="n">
-        <v>51.41372388243628</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>45.28520799564988</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>253.4516068950647</v>
+        <v>253.4516068950653</v>
       </c>
       <c r="C11" t="n">
-        <v>253.4516068950647</v>
+        <v>253.4516068950653</v>
       </c>
       <c r="D11" t="n">
-        <v>253.4516068950647</v>
+        <v>253.4516068950653</v>
       </c>
       <c r="E11" t="n">
-        <v>253.4516068950647</v>
+        <v>253.4516068950653</v>
       </c>
       <c r="F11" t="n">
-        <v>231.1034818378846</v>
+        <v>231.1034818378848</v>
       </c>
       <c r="G11" t="n">
-        <v>166.9176867021423</v>
+        <v>166.9176867021424</v>
       </c>
       <c r="H11" t="n">
         <v>102.7318915664</v>
       </c>
       <c r="I11" t="n">
-        <v>38.54609643065768</v>
+        <v>38.54609643065763</v>
       </c>
       <c r="J11" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750797</v>
       </c>
       <c r="K11" t="n">
-        <v>6.668317430639783</v>
+        <v>6.668317430639875</v>
       </c>
       <c r="L11" t="n">
-        <v>45.5361668729285</v>
+        <v>45.53616687292871</v>
       </c>
       <c r="M11" t="n">
-        <v>108.4446646854695</v>
+        <v>108.4446646854698</v>
       </c>
       <c r="N11" t="n">
-        <v>171.3531624980105</v>
+        <v>171.3531624980109</v>
       </c>
       <c r="O11" t="n">
-        <v>234.2616603105515</v>
+        <v>234.261660310552</v>
       </c>
       <c r="P11" t="n">
-        <v>253.4516068950647</v>
+        <v>253.4516068950653</v>
       </c>
       <c r="Q11" t="n">
-        <v>253.4516068950647</v>
+        <v>253.4516068950653</v>
       </c>
       <c r="R11" t="n">
-        <v>253.4516068950647</v>
+        <v>253.4516068950653</v>
       </c>
       <c r="S11" t="n">
-        <v>253.4516068950647</v>
+        <v>253.4516068950653</v>
       </c>
       <c r="T11" t="n">
-        <v>253.4516068950647</v>
+        <v>253.4516068950653</v>
       </c>
       <c r="U11" t="n">
-        <v>253.4516068950647</v>
+        <v>253.4516068950653</v>
       </c>
       <c r="V11" t="n">
-        <v>253.4516068950647</v>
+        <v>253.4516068950653</v>
       </c>
       <c r="W11" t="n">
-        <v>253.4516068950647</v>
+        <v>253.4516068950653</v>
       </c>
       <c r="X11" t="n">
-        <v>253.4516068950647</v>
+        <v>253.4516068950653</v>
       </c>
       <c r="Y11" t="n">
-        <v>253.4516068950647</v>
+        <v>253.4516068950653</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>61.6183633303126</v>
+        <v>69.26931011049319</v>
       </c>
       <c r="C12" t="n">
-        <v>61.6183633303126</v>
+        <v>69.26931011049319</v>
       </c>
       <c r="D12" t="n">
-        <v>61.6183633303126</v>
+        <v>69.26931011049319</v>
       </c>
       <c r="E12" t="n">
-        <v>61.6183633303126</v>
+        <v>69.26931011049319</v>
       </c>
       <c r="F12" t="n">
-        <v>61.6183633303126</v>
+        <v>69.26931011049319</v>
       </c>
       <c r="G12" t="n">
-        <v>61.6183633303126</v>
+        <v>69.26931011049319</v>
       </c>
       <c r="H12" t="n">
-        <v>61.6183633303126</v>
+        <v>5.083514974750797</v>
       </c>
       <c r="I12" t="n">
-        <v>44.2135247221802</v>
+        <v>5.083514974750797</v>
       </c>
       <c r="J12" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750797</v>
       </c>
       <c r="K12" t="n">
-        <v>5.08351497475079</v>
+        <v>17.6898209470375</v>
       </c>
       <c r="L12" t="n">
-        <v>67.99201278729181</v>
+        <v>21.80275241834713</v>
       </c>
       <c r="M12" t="n">
-        <v>130.9005105998328</v>
+        <v>84.71125023088824</v>
       </c>
       <c r="N12" t="n">
-        <v>193.8090084123739</v>
+        <v>147.6197480434294</v>
       </c>
       <c r="O12" t="n">
-        <v>210.5282458559701</v>
+        <v>210.5282458559705</v>
       </c>
       <c r="P12" t="n">
-        <v>254.1757487375395</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="Q12" t="n">
-        <v>254.1757487375395</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="R12" t="n">
-        <v>254.1757487375395</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="S12" t="n">
-        <v>254.1757487375395</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="T12" t="n">
-        <v>254.1757487375395</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="U12" t="n">
-        <v>254.1757487375395</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="V12" t="n">
-        <v>254.1757487375395</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="W12" t="n">
-        <v>189.9899536017972</v>
+        <v>189.9899536017975</v>
       </c>
       <c r="X12" t="n">
-        <v>125.8041584660549</v>
+        <v>125.8041584660551</v>
       </c>
       <c r="Y12" t="n">
-        <v>61.6183633303126</v>
+        <v>69.26931011049319</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750797</v>
       </c>
       <c r="C13" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750797</v>
       </c>
       <c r="D13" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750797</v>
       </c>
       <c r="E13" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750797</v>
       </c>
       <c r="F13" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750797</v>
       </c>
       <c r="G13" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750797</v>
       </c>
       <c r="H13" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750797</v>
       </c>
       <c r="I13" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750797</v>
       </c>
       <c r="J13" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750797</v>
       </c>
       <c r="K13" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750797</v>
       </c>
       <c r="L13" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750797</v>
       </c>
       <c r="M13" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750797</v>
       </c>
       <c r="N13" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750797</v>
       </c>
       <c r="O13" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750797</v>
       </c>
       <c r="P13" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750797</v>
       </c>
       <c r="Q13" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750797</v>
       </c>
       <c r="R13" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750797</v>
       </c>
       <c r="S13" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750797</v>
       </c>
       <c r="T13" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750797</v>
       </c>
       <c r="U13" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750797</v>
       </c>
       <c r="V13" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750797</v>
       </c>
       <c r="W13" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750797</v>
       </c>
       <c r="X13" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750797</v>
       </c>
       <c r="Y13" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750797</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>60.89422148783785</v>
+        <v>189.265811759323</v>
       </c>
       <c r="C14" t="n">
-        <v>38.54609643065768</v>
+        <v>125.0800166235806</v>
       </c>
       <c r="D14" t="n">
-        <v>38.54609643065768</v>
+        <v>60.89422148783817</v>
       </c>
       <c r="E14" t="n">
-        <v>38.54609643065768</v>
+        <v>38.54609643065763</v>
       </c>
       <c r="F14" t="n">
-        <v>38.54609643065768</v>
+        <v>38.54609643065763</v>
       </c>
       <c r="G14" t="n">
-        <v>38.54609643065768</v>
+        <v>38.54609643065763</v>
       </c>
       <c r="H14" t="n">
-        <v>38.54609643065768</v>
+        <v>38.54609643065763</v>
       </c>
       <c r="I14" t="n">
-        <v>38.54609643065768</v>
+        <v>38.54609643065763</v>
       </c>
       <c r="J14" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750797</v>
       </c>
       <c r="K14" t="n">
-        <v>6.668317430639783</v>
+        <v>6.668317430639875</v>
       </c>
       <c r="L14" t="n">
-        <v>45.5361668729285</v>
+        <v>45.53616687292871</v>
       </c>
       <c r="M14" t="n">
-        <v>108.4446646854695</v>
+        <v>108.4446646854698</v>
       </c>
       <c r="N14" t="n">
-        <v>171.3531624980105</v>
+        <v>171.3531624980109</v>
       </c>
       <c r="O14" t="n">
-        <v>234.2616603105515</v>
+        <v>234.2616603105521</v>
       </c>
       <c r="P14" t="n">
-        <v>253.4516068950647</v>
+        <v>253.4516068950654</v>
       </c>
       <c r="Q14" t="n">
-        <v>253.4516068950647</v>
+        <v>253.4516068950654</v>
       </c>
       <c r="R14" t="n">
-        <v>253.4516068950647</v>
+        <v>253.4516068950654</v>
       </c>
       <c r="S14" t="n">
-        <v>253.4516068950647</v>
+        <v>253.4516068950654</v>
       </c>
       <c r="T14" t="n">
-        <v>253.4516068950647</v>
+        <v>253.4516068950654</v>
       </c>
       <c r="U14" t="n">
-        <v>253.4516068950647</v>
+        <v>253.4516068950654</v>
       </c>
       <c r="V14" t="n">
-        <v>253.4516068950647</v>
+        <v>253.4516068950654</v>
       </c>
       <c r="W14" t="n">
-        <v>189.2658117593224</v>
+        <v>253.4516068950654</v>
       </c>
       <c r="X14" t="n">
-        <v>189.2658117593224</v>
+        <v>253.4516068950654</v>
       </c>
       <c r="Y14" t="n">
-        <v>125.0800166235801</v>
+        <v>253.4516068950654</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>254.1757487375395</v>
+        <v>189.9899536017975</v>
       </c>
       <c r="C15" t="n">
-        <v>189.9899536017972</v>
+        <v>125.8041584660551</v>
       </c>
       <c r="D15" t="n">
-        <v>189.9899536017972</v>
+        <v>108.3993198579226</v>
       </c>
       <c r="E15" t="n">
-        <v>189.9899536017972</v>
+        <v>44.21352472218017</v>
       </c>
       <c r="F15" t="n">
-        <v>189.9899536017972</v>
+        <v>44.21352472218017</v>
       </c>
       <c r="G15" t="n">
-        <v>172.5851149936648</v>
+        <v>44.21352472218017</v>
       </c>
       <c r="H15" t="n">
-        <v>108.3993198579225</v>
+        <v>44.21352472218017</v>
       </c>
       <c r="I15" t="n">
-        <v>44.2135247221802</v>
+        <v>44.21352472218017</v>
       </c>
       <c r="J15" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750797</v>
       </c>
       <c r="K15" t="n">
-        <v>5.08351497475079</v>
+        <v>17.6898209470375</v>
       </c>
       <c r="L15" t="n">
-        <v>67.99201278729181</v>
+        <v>80.59831875957862</v>
       </c>
       <c r="M15" t="n">
-        <v>84.71125023088808</v>
+        <v>143.5068165721197</v>
       </c>
       <c r="N15" t="n">
-        <v>147.6197480434291</v>
+        <v>206.4153143846609</v>
       </c>
       <c r="O15" t="n">
-        <v>210.5282458559701</v>
+        <v>210.5282458559705</v>
       </c>
       <c r="P15" t="n">
-        <v>254.1757487375395</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="Q15" t="n">
-        <v>254.1757487375395</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="R15" t="n">
-        <v>254.1757487375395</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="S15" t="n">
-        <v>254.1757487375395</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="T15" t="n">
-        <v>254.1757487375395</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="U15" t="n">
-        <v>254.1757487375395</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="V15" t="n">
-        <v>254.1757487375395</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="W15" t="n">
-        <v>254.1757487375395</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="X15" t="n">
-        <v>254.1757487375395</v>
+        <v>189.9899536017975</v>
       </c>
       <c r="Y15" t="n">
-        <v>254.1757487375395</v>
+        <v>189.9899536017975</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750797</v>
       </c>
       <c r="C16" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750797</v>
       </c>
       <c r="D16" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750797</v>
       </c>
       <c r="E16" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750797</v>
       </c>
       <c r="F16" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750797</v>
       </c>
       <c r="G16" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750797</v>
       </c>
       <c r="H16" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750797</v>
       </c>
       <c r="I16" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750797</v>
       </c>
       <c r="J16" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750797</v>
       </c>
       <c r="K16" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750797</v>
       </c>
       <c r="L16" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750797</v>
       </c>
       <c r="M16" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750797</v>
       </c>
       <c r="N16" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750797</v>
       </c>
       <c r="O16" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750797</v>
       </c>
       <c r="P16" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750797</v>
       </c>
       <c r="Q16" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750797</v>
       </c>
       <c r="R16" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750797</v>
       </c>
       <c r="S16" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750797</v>
       </c>
       <c r="T16" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750797</v>
       </c>
       <c r="U16" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750797</v>
       </c>
       <c r="V16" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750797</v>
       </c>
       <c r="W16" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750797</v>
       </c>
       <c r="X16" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750797</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750797</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>253.4516068950647</v>
+        <v>26.44682234832644</v>
       </c>
       <c r="C17" t="n">
-        <v>253.4516068950647</v>
+        <v>26.44682234832644</v>
       </c>
       <c r="D17" t="n">
-        <v>253.4516068950647</v>
+        <v>26.44682234832644</v>
       </c>
       <c r="E17" t="n">
-        <v>253.4516068950647</v>
+        <v>26.44682234832644</v>
       </c>
       <c r="F17" t="n">
-        <v>231.1034818378846</v>
+        <v>26.44682234832644</v>
       </c>
       <c r="G17" t="n">
-        <v>166.9176867021423</v>
+        <v>26.44682234832644</v>
       </c>
       <c r="H17" t="n">
-        <v>102.7318915664</v>
+        <v>26.44682234832644</v>
       </c>
       <c r="I17" t="n">
-        <v>38.54609643065768</v>
+        <v>26.44682234832644</v>
       </c>
       <c r="J17" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750797</v>
       </c>
       <c r="K17" t="n">
-        <v>6.668317430639783</v>
+        <v>6.668317430639875</v>
       </c>
       <c r="L17" t="n">
-        <v>45.5361668729285</v>
+        <v>45.53616687292871</v>
       </c>
       <c r="M17" t="n">
-        <v>108.4446646854695</v>
+        <v>108.4446646854698</v>
       </c>
       <c r="N17" t="n">
-        <v>171.3531624980105</v>
+        <v>171.3531624980109</v>
       </c>
       <c r="O17" t="n">
-        <v>234.2616603105515</v>
+        <v>234.261660310552</v>
       </c>
       <c r="P17" t="n">
-        <v>253.4516068950647</v>
+        <v>253.4516068950653</v>
       </c>
       <c r="Q17" t="n">
-        <v>253.4516068950647</v>
+        <v>219.0042077555536</v>
       </c>
       <c r="R17" t="n">
-        <v>253.4516068950647</v>
+        <v>154.8184126198112</v>
       </c>
       <c r="S17" t="n">
-        <v>253.4516068950647</v>
+        <v>90.63261748406883</v>
       </c>
       <c r="T17" t="n">
-        <v>253.4516068950647</v>
+        <v>26.44682234832644</v>
       </c>
       <c r="U17" t="n">
-        <v>253.4516068950647</v>
+        <v>26.44682234832644</v>
       </c>
       <c r="V17" t="n">
-        <v>253.4516068950647</v>
+        <v>26.44682234832644</v>
       </c>
       <c r="W17" t="n">
-        <v>253.4516068950647</v>
+        <v>26.44682234832644</v>
       </c>
       <c r="X17" t="n">
-        <v>253.4516068950647</v>
+        <v>26.44682234832644</v>
       </c>
       <c r="Y17" t="n">
-        <v>253.4516068950647</v>
+        <v>26.44682234832644</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>44.2135247221802</v>
+        <v>168.8268104140772</v>
       </c>
       <c r="C18" t="n">
-        <v>44.2135247221802</v>
+        <v>168.8268104140772</v>
       </c>
       <c r="D18" t="n">
-        <v>44.2135247221802</v>
+        <v>104.6410152783348</v>
       </c>
       <c r="E18" t="n">
-        <v>44.2135247221802</v>
+        <v>104.6410152783348</v>
       </c>
       <c r="F18" t="n">
-        <v>44.2135247221802</v>
+        <v>104.6410152783348</v>
       </c>
       <c r="G18" t="n">
-        <v>44.2135247221802</v>
+        <v>104.6410152783348</v>
       </c>
       <c r="H18" t="n">
-        <v>44.2135247221802</v>
+        <v>40.45522014259242</v>
       </c>
       <c r="I18" t="n">
-        <v>44.2135247221802</v>
+        <v>5.083514974750797</v>
       </c>
       <c r="J18" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750797</v>
       </c>
       <c r="K18" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750797</v>
       </c>
       <c r="L18" t="n">
-        <v>21.80275241834706</v>
+        <v>67.99201278729191</v>
       </c>
       <c r="M18" t="n">
-        <v>84.71125023088808</v>
+        <v>130.900510599833</v>
       </c>
       <c r="N18" t="n">
-        <v>147.6197480434291</v>
+        <v>191.2672509249987</v>
       </c>
       <c r="O18" t="n">
-        <v>210.5282458559701</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="P18" t="n">
-        <v>254.1757487375395</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="Q18" t="n">
-        <v>254.1757487375395</v>
+        <v>233.0126055498196</v>
       </c>
       <c r="R18" t="n">
-        <v>254.1757487375395</v>
+        <v>233.0126055498196</v>
       </c>
       <c r="S18" t="n">
-        <v>254.1757487375395</v>
+        <v>233.0126055498196</v>
       </c>
       <c r="T18" t="n">
-        <v>254.1757487375395</v>
+        <v>233.0126055498196</v>
       </c>
       <c r="U18" t="n">
-        <v>254.1757487375395</v>
+        <v>233.0126055498196</v>
       </c>
       <c r="V18" t="n">
-        <v>189.9899536017972</v>
+        <v>168.8268104140772</v>
       </c>
       <c r="W18" t="n">
-        <v>125.8041584660549</v>
+        <v>168.8268104140772</v>
       </c>
       <c r="X18" t="n">
-        <v>61.6183633303126</v>
+        <v>168.8268104140772</v>
       </c>
       <c r="Y18" t="n">
-        <v>44.2135247221802</v>
+        <v>168.8268104140772</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750797</v>
       </c>
       <c r="C19" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750797</v>
       </c>
       <c r="D19" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750797</v>
       </c>
       <c r="E19" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750797</v>
       </c>
       <c r="F19" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750797</v>
       </c>
       <c r="G19" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750797</v>
       </c>
       <c r="H19" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750797</v>
       </c>
       <c r="I19" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750797</v>
       </c>
       <c r="J19" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750797</v>
       </c>
       <c r="K19" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750797</v>
       </c>
       <c r="L19" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750797</v>
       </c>
       <c r="M19" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750797</v>
       </c>
       <c r="N19" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750797</v>
       </c>
       <c r="O19" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750797</v>
       </c>
       <c r="P19" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750797</v>
       </c>
       <c r="Q19" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750797</v>
       </c>
       <c r="R19" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750797</v>
       </c>
       <c r="S19" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750797</v>
       </c>
       <c r="T19" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750797</v>
       </c>
       <c r="U19" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750797</v>
       </c>
       <c r="V19" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750797</v>
       </c>
       <c r="W19" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750797</v>
       </c>
       <c r="X19" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750797</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750797</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>202.0013104522976</v>
+        <v>202.0013104522981</v>
       </c>
       <c r="C20" t="n">
-        <v>202.0013104522976</v>
+        <v>202.0013104522981</v>
       </c>
       <c r="D20" t="n">
-        <v>202.0013104522976</v>
+        <v>202.0013104522981</v>
       </c>
       <c r="E20" t="n">
-        <v>202.0013104522976</v>
+        <v>202.0013104522981</v>
       </c>
       <c r="F20" t="n">
-        <v>202.0013104522976</v>
+        <v>125.5627746075167</v>
       </c>
       <c r="G20" t="n">
-        <v>125.5627746075164</v>
+        <v>125.5627746075167</v>
       </c>
       <c r="H20" t="n">
-        <v>115.9550493395948</v>
+        <v>115.9550493395949</v>
       </c>
       <c r="I20" t="n">
-        <v>39.51651349481357</v>
+        <v>39.51651349481352</v>
       </c>
       <c r="J20" t="n">
-        <v>6.053932038906676</v>
+        <v>6.053932038906686</v>
       </c>
       <c r="K20" t="n">
-        <v>7.638734494795669</v>
+        <v>7.638734494795764</v>
       </c>
       <c r="L20" t="n">
-        <v>46.50658393708439</v>
+        <v>46.5065839370846</v>
       </c>
       <c r="M20" t="n">
-        <v>121.4239929185545</v>
+        <v>121.4239929185548</v>
       </c>
       <c r="N20" t="n">
-        <v>196.3414019000246</v>
+        <v>196.3414019000251</v>
       </c>
       <c r="O20" t="n">
-        <v>259.2498997125657</v>
+        <v>259.2498997125662</v>
       </c>
       <c r="P20" t="n">
-        <v>278.4398462970789</v>
+        <v>278.4398462970795</v>
       </c>
       <c r="Q20" t="n">
-        <v>278.4398462970789</v>
+        <v>278.4398462970795</v>
       </c>
       <c r="R20" t="n">
-        <v>278.4398462970789</v>
+        <v>278.4398462970795</v>
       </c>
       <c r="S20" t="n">
-        <v>278.4398462970789</v>
+        <v>278.4398462970795</v>
       </c>
       <c r="T20" t="n">
-        <v>278.4398462970789</v>
+        <v>278.4398462970795</v>
       </c>
       <c r="U20" t="n">
-        <v>278.4398462970789</v>
+        <v>278.4398462970795</v>
       </c>
       <c r="V20" t="n">
-        <v>202.0013104522976</v>
+        <v>278.4398462970795</v>
       </c>
       <c r="W20" t="n">
-        <v>202.0013104522976</v>
+        <v>202.0013104522981</v>
       </c>
       <c r="X20" t="n">
-        <v>202.0013104522976</v>
+        <v>202.0013104522981</v>
       </c>
       <c r="Y20" t="n">
-        <v>202.0013104522976</v>
+        <v>202.0013104522981</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>158.9310037284692</v>
+        <v>198.0610134758988</v>
       </c>
       <c r="C21" t="n">
-        <v>158.9310037284692</v>
+        <v>121.6224776311175</v>
       </c>
       <c r="D21" t="n">
-        <v>158.9310037284692</v>
+        <v>121.6224776311175</v>
       </c>
       <c r="E21" t="n">
-        <v>82.49246788368794</v>
+        <v>121.6224776311175</v>
       </c>
       <c r="F21" t="n">
-        <v>6.053932038906676</v>
+        <v>121.6224776311175</v>
       </c>
       <c r="G21" t="n">
-        <v>6.053932038906676</v>
+        <v>45.18394178633606</v>
       </c>
       <c r="H21" t="n">
-        <v>6.053932038906676</v>
+        <v>45.18394178633606</v>
       </c>
       <c r="I21" t="n">
-        <v>6.053932038906676</v>
+        <v>45.18394178633606</v>
       </c>
       <c r="J21" t="n">
-        <v>6.053932038906676</v>
+        <v>6.053932038906686</v>
       </c>
       <c r="K21" t="n">
-        <v>18.66023801119332</v>
+        <v>18.66023801119339</v>
       </c>
       <c r="L21" t="n">
-        <v>81.9335132608705</v>
+        <v>81.93351326087065</v>
       </c>
       <c r="M21" t="n">
-        <v>156.8509222423406</v>
+        <v>156.8509222423409</v>
       </c>
       <c r="N21" t="n">
-        <v>231.7683312238107</v>
+        <v>231.7683312238111</v>
       </c>
       <c r="O21" t="n">
-        <v>259.0490990637644</v>
+        <v>259.0490990637649</v>
       </c>
       <c r="P21" t="n">
-        <v>302.6966019453338</v>
+        <v>302.6966019453343</v>
       </c>
       <c r="Q21" t="n">
-        <v>302.6966019453338</v>
+        <v>281.533458757614</v>
       </c>
       <c r="R21" t="n">
-        <v>235.3695395732504</v>
+        <v>281.533458757614</v>
       </c>
       <c r="S21" t="n">
-        <v>235.3695395732504</v>
+        <v>205.0949229128326</v>
       </c>
       <c r="T21" t="n">
-        <v>158.9310037284692</v>
+        <v>205.0949229128326</v>
       </c>
       <c r="U21" t="n">
-        <v>158.9310037284692</v>
+        <v>205.0949229128326</v>
       </c>
       <c r="V21" t="n">
-        <v>158.9310037284692</v>
+        <v>205.0949229128326</v>
       </c>
       <c r="W21" t="n">
-        <v>158.9310037284692</v>
+        <v>205.0949229128326</v>
       </c>
       <c r="X21" t="n">
-        <v>158.9310037284692</v>
+        <v>205.0949229128326</v>
       </c>
       <c r="Y21" t="n">
-        <v>158.9310037284692</v>
+        <v>205.0949229128326</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>6.053932038906676</v>
+        <v>6.053932038906686</v>
       </c>
       <c r="C22" t="n">
-        <v>6.053932038906676</v>
+        <v>6.053932038906686</v>
       </c>
       <c r="D22" t="n">
-        <v>6.053932038906676</v>
+        <v>6.053932038906686</v>
       </c>
       <c r="E22" t="n">
-        <v>6.053932038906676</v>
+        <v>6.053932038906686</v>
       </c>
       <c r="F22" t="n">
-        <v>6.053932038906676</v>
+        <v>6.053932038906686</v>
       </c>
       <c r="G22" t="n">
-        <v>6.053932038906676</v>
+        <v>6.053932038906686</v>
       </c>
       <c r="H22" t="n">
-        <v>6.053932038906676</v>
+        <v>6.053932038906686</v>
       </c>
       <c r="I22" t="n">
-        <v>6.053932038906676</v>
+        <v>6.053932038906686</v>
       </c>
       <c r="J22" t="n">
-        <v>6.053932038906676</v>
+        <v>6.053932038906686</v>
       </c>
       <c r="K22" t="n">
-        <v>6.053932038906676</v>
+        <v>6.053932038906686</v>
       </c>
       <c r="L22" t="n">
-        <v>6.053932038906676</v>
+        <v>6.053932038906686</v>
       </c>
       <c r="M22" t="n">
-        <v>6.053932038906676</v>
+        <v>6.053932038906686</v>
       </c>
       <c r="N22" t="n">
-        <v>6.053932038906676</v>
+        <v>6.053932038906686</v>
       </c>
       <c r="O22" t="n">
-        <v>6.053932038906676</v>
+        <v>6.053932038906686</v>
       </c>
       <c r="P22" t="n">
-        <v>6.053932038906676</v>
+        <v>6.053932038906686</v>
       </c>
       <c r="Q22" t="n">
-        <v>6.053932038906676</v>
+        <v>6.053932038906686</v>
       </c>
       <c r="R22" t="n">
-        <v>6.053932038906676</v>
+        <v>6.053932038906686</v>
       </c>
       <c r="S22" t="n">
-        <v>6.053932038906676</v>
+        <v>6.053932038906686</v>
       </c>
       <c r="T22" t="n">
-        <v>6.053932038906676</v>
+        <v>6.053932038906686</v>
       </c>
       <c r="U22" t="n">
-        <v>6.053932038906676</v>
+        <v>6.053932038906686</v>
       </c>
       <c r="V22" t="n">
-        <v>6.053932038906676</v>
+        <v>6.053932038906686</v>
       </c>
       <c r="W22" t="n">
-        <v>6.053932038906676</v>
+        <v>6.053932038906686</v>
       </c>
       <c r="X22" t="n">
-        <v>6.053932038906676</v>
+        <v>6.053932038906686</v>
       </c>
       <c r="Y22" t="n">
-        <v>6.053932038906676</v>
+        <v>6.053932038906686</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>253.6733599280775</v>
+        <v>119.9709313340087</v>
       </c>
       <c r="C23" t="n">
-        <v>253.6733599280775</v>
+        <v>88.90760263522395</v>
       </c>
       <c r="D23" t="n">
-        <v>171.2904812816507</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="E23" t="n">
-        <v>171.2904812816507</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="F23" t="n">
-        <v>88.90760263522384</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="G23" t="n">
-        <v>88.90760263522384</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="H23" t="n">
-        <v>88.90760263522384</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="I23" t="n">
-        <v>6.524723988797005</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="J23" t="n">
-        <v>6.524723988797005</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="K23" t="n">
-        <v>8.109526444685999</v>
+        <v>8.109526444686091</v>
       </c>
       <c r="L23" t="n">
-        <v>46.97737588697472</v>
+        <v>46.97737588697493</v>
       </c>
       <c r="M23" t="n">
-        <v>121.8947848684448</v>
+        <v>121.8947848684451</v>
       </c>
       <c r="N23" t="n">
-        <v>202.6382442298078</v>
+        <v>202.6382442298082</v>
       </c>
       <c r="O23" t="n">
-        <v>265.5467420423488</v>
+        <v>265.5467420423493</v>
       </c>
       <c r="P23" t="n">
-        <v>284.736688626862</v>
+        <v>284.7366886268626</v>
       </c>
       <c r="Q23" t="n">
-        <v>284.736688626862</v>
+        <v>284.7366886268626</v>
       </c>
       <c r="R23" t="n">
-        <v>284.736688626862</v>
+        <v>284.7366886268626</v>
       </c>
       <c r="S23" t="n">
-        <v>253.6733599280775</v>
+        <v>202.3538099804356</v>
       </c>
       <c r="T23" t="n">
-        <v>253.6733599280775</v>
+        <v>202.3538099804356</v>
       </c>
       <c r="U23" t="n">
-        <v>253.6733599280775</v>
+        <v>202.3538099804356</v>
       </c>
       <c r="V23" t="n">
-        <v>253.6733599280775</v>
+        <v>202.3538099804356</v>
       </c>
       <c r="W23" t="n">
-        <v>253.6733599280775</v>
+        <v>202.3538099804356</v>
       </c>
       <c r="X23" t="n">
-        <v>253.6733599280775</v>
+        <v>202.3538099804356</v>
       </c>
       <c r="Y23" t="n">
-        <v>253.6733599280775</v>
+        <v>119.9709313340087</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>79.08756350056973</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="C24" t="n">
-        <v>79.08756350056973</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="D24" t="n">
-        <v>79.08756350056973</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="E24" t="n">
-        <v>79.08756350056973</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="F24" t="n">
-        <v>79.08756350056973</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="G24" t="n">
-        <v>6.524723988797005</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="H24" t="n">
-        <v>6.524723988797005</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="I24" t="n">
-        <v>6.524723988797005</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="J24" t="n">
-        <v>6.524723988797005</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="K24" t="n">
-        <v>6.524723988797005</v>
+        <v>19.13102996108372</v>
       </c>
       <c r="L24" t="n">
-        <v>69.79799923847418</v>
+        <v>82.40430521076098</v>
       </c>
       <c r="M24" t="n">
-        <v>150.5414585998371</v>
+        <v>163.147764572124</v>
       </c>
       <c r="N24" t="n">
-        <v>231.2849179612</v>
+        <v>204.1168573990269</v>
       </c>
       <c r="O24" t="n">
-        <v>282.5886965582808</v>
+        <v>282.5886965582812</v>
       </c>
       <c r="P24" t="n">
-        <v>326.2361994398502</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="Q24" t="n">
-        <v>326.2361994398502</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="R24" t="n">
-        <v>326.2361994398502</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="S24" t="n">
-        <v>326.2361994398502</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="T24" t="n">
-        <v>243.8533207934234</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="U24" t="n">
-        <v>243.8533207934234</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="V24" t="n">
-        <v>243.8533207934234</v>
+        <v>243.8533207934237</v>
       </c>
       <c r="W24" t="n">
-        <v>161.4704421469966</v>
+        <v>171.2904812816509</v>
       </c>
       <c r="X24" t="n">
-        <v>161.4704421469966</v>
+        <v>88.90760263522395</v>
       </c>
       <c r="Y24" t="n">
-        <v>79.08756350056973</v>
+        <v>6.524723988797014</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="C25" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="D25" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="E25" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="F25" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="G25" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="H25" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="I25" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="J25" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="K25" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="L25" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="M25" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="N25" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="O25" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="P25" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="Q25" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="R25" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="S25" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="T25" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="U25" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="V25" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="W25" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="X25" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="Y25" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>284.736688626862</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="C26" t="n">
-        <v>284.736688626862</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="D26" t="n">
-        <v>284.736688626862</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="E26" t="n">
-        <v>284.736688626862</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="F26" t="n">
-        <v>284.736688626862</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="G26" t="n">
-        <v>202.3538099804352</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="H26" t="n">
-        <v>119.9709313340084</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="I26" t="n">
-        <v>37.58805268758152</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="J26" t="n">
-        <v>6.524723988797005</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="K26" t="n">
-        <v>8.109526444685999</v>
+        <v>8.109526444686091</v>
       </c>
       <c r="L26" t="n">
-        <v>46.97737588697472</v>
+        <v>46.97737588697493</v>
       </c>
       <c r="M26" t="n">
-        <v>121.8947848684448</v>
+        <v>121.8947848684451</v>
       </c>
       <c r="N26" t="n">
-        <v>202.6382442298078</v>
+        <v>202.6382442298082</v>
       </c>
       <c r="O26" t="n">
-        <v>265.5467420423488</v>
+        <v>265.5467420423493</v>
       </c>
       <c r="P26" t="n">
-        <v>284.736688626862</v>
+        <v>284.7366886268626</v>
       </c>
       <c r="Q26" t="n">
-        <v>284.736688626862</v>
+        <v>250.2892894873509</v>
       </c>
       <c r="R26" t="n">
-        <v>284.736688626862</v>
+        <v>167.9064108409239</v>
       </c>
       <c r="S26" t="n">
-        <v>284.736688626862</v>
+        <v>88.90760263522395</v>
       </c>
       <c r="T26" t="n">
-        <v>284.736688626862</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="U26" t="n">
-        <v>284.736688626862</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="V26" t="n">
-        <v>284.736688626862</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="W26" t="n">
-        <v>284.736688626862</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="X26" t="n">
-        <v>284.736688626862</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="Y26" t="n">
-        <v>284.736688626862</v>
+        <v>6.524723988797014</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>88.90760263522384</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="C27" t="n">
-        <v>6.524723988797005</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="D27" t="n">
-        <v>6.524723988797005</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="E27" t="n">
-        <v>6.524723988797005</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="F27" t="n">
-        <v>6.524723988797005</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="G27" t="n">
-        <v>6.524723988797005</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="H27" t="n">
-        <v>6.524723988797005</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="I27" t="n">
-        <v>6.524723988797005</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="J27" t="n">
-        <v>6.524723988797005</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="K27" t="n">
-        <v>19.13102996108365</v>
+        <v>19.13102996108372</v>
       </c>
       <c r="L27" t="n">
-        <v>82.40430521076082</v>
+        <v>82.40430521076098</v>
       </c>
       <c r="M27" t="n">
-        <v>163.1477645721237</v>
+        <v>163.147764572124</v>
       </c>
       <c r="N27" t="n">
-        <v>243.8912239334867</v>
+        <v>204.1168573990269</v>
       </c>
       <c r="O27" t="n">
-        <v>282.5886965582808</v>
+        <v>282.5886965582812</v>
       </c>
       <c r="P27" t="n">
-        <v>326.2361994398502</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="Q27" t="n">
-        <v>305.07305625213</v>
+        <v>305.0730562521304</v>
       </c>
       <c r="R27" t="n">
-        <v>305.07305625213</v>
+        <v>222.6901776057035</v>
       </c>
       <c r="S27" t="n">
-        <v>305.07305625213</v>
+        <v>140.3072989592765</v>
       </c>
       <c r="T27" t="n">
-        <v>305.07305625213</v>
+        <v>57.92442031284958</v>
       </c>
       <c r="U27" t="n">
-        <v>305.07305625213</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="V27" t="n">
-        <v>305.07305625213</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="W27" t="n">
-        <v>222.6901776057031</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="X27" t="n">
-        <v>140.3072989592763</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="Y27" t="n">
-        <v>88.90760263522384</v>
+        <v>6.524723988797014</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="C28" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="D28" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="E28" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="F28" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="G28" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="H28" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="I28" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="J28" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="K28" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="L28" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="M28" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="N28" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="O28" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="P28" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="Q28" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="R28" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="S28" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="T28" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="U28" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="V28" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="W28" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="X28" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="Y28" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>284.736688626862</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="C29" t="n">
-        <v>284.736688626862</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="D29" t="n">
-        <v>284.736688626862</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="E29" t="n">
-        <v>284.736688626862</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="F29" t="n">
-        <v>253.6733599280775</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="G29" t="n">
-        <v>171.2904812816507</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="H29" t="n">
-        <v>88.90760263522384</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="I29" t="n">
-        <v>6.524723988797005</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="J29" t="n">
-        <v>6.524723988797005</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="K29" t="n">
-        <v>8.109526444685999</v>
+        <v>8.109526444686091</v>
       </c>
       <c r="L29" t="n">
-        <v>46.97737588697472</v>
+        <v>46.97737588697493</v>
       </c>
       <c r="M29" t="n">
-        <v>121.8947848684448</v>
+        <v>121.8947848684451</v>
       </c>
       <c r="N29" t="n">
-        <v>202.6382442298078</v>
+        <v>202.6382442298082</v>
       </c>
       <c r="O29" t="n">
-        <v>265.5467420423488</v>
+        <v>265.5467420423493</v>
       </c>
       <c r="P29" t="n">
-        <v>284.736688626862</v>
+        <v>284.7366886268626</v>
       </c>
       <c r="Q29" t="n">
-        <v>284.736688626862</v>
+        <v>284.7366886268626</v>
       </c>
       <c r="R29" t="n">
-        <v>284.736688626862</v>
+        <v>284.7366886268626</v>
       </c>
       <c r="S29" t="n">
-        <v>284.736688626862</v>
+        <v>284.7366886268626</v>
       </c>
       <c r="T29" t="n">
-        <v>284.736688626862</v>
+        <v>202.3538099804356</v>
       </c>
       <c r="U29" t="n">
-        <v>284.736688626862</v>
+        <v>202.3538099804356</v>
       </c>
       <c r="V29" t="n">
-        <v>284.736688626862</v>
+        <v>202.3538099804356</v>
       </c>
       <c r="W29" t="n">
-        <v>284.736688626862</v>
+        <v>119.9709313340087</v>
       </c>
       <c r="X29" t="n">
-        <v>284.736688626862</v>
+        <v>37.58805268758175</v>
       </c>
       <c r="Y29" t="n">
-        <v>284.736688626862</v>
+        <v>6.524723988797014</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>74.62296131769689</v>
+        <v>222.6901776057035</v>
       </c>
       <c r="C30" t="n">
-        <v>74.62296131769689</v>
+        <v>222.6901776057035</v>
       </c>
       <c r="D30" t="n">
-        <v>74.62296131769689</v>
+        <v>222.6901776057035</v>
       </c>
       <c r="E30" t="n">
-        <v>74.62296131769689</v>
+        <v>222.6901776057035</v>
       </c>
       <c r="F30" t="n">
-        <v>74.62296131769689</v>
+        <v>222.6901776057035</v>
       </c>
       <c r="G30" t="n">
-        <v>74.62296131769689</v>
+        <v>140.3072989592765</v>
       </c>
       <c r="H30" t="n">
-        <v>74.62296131769689</v>
+        <v>57.92442031284958</v>
       </c>
       <c r="I30" t="n">
-        <v>6.524723988797005</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="J30" t="n">
-        <v>6.524723988797005</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="K30" t="n">
-        <v>6.524723988797005</v>
+        <v>19.13102996108372</v>
       </c>
       <c r="L30" t="n">
-        <v>69.79799923847418</v>
+        <v>82.40430521076098</v>
       </c>
       <c r="M30" t="n">
-        <v>123.3733980376636</v>
+        <v>163.147764572124</v>
       </c>
       <c r="N30" t="n">
-        <v>204.1168573990266</v>
+        <v>243.891223933487</v>
       </c>
       <c r="O30" t="n">
-        <v>282.5886965582808</v>
+        <v>282.5886965582812</v>
       </c>
       <c r="P30" t="n">
-        <v>326.2361994398502</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="Q30" t="n">
-        <v>321.7715972569774</v>
+        <v>305.0730562521304</v>
       </c>
       <c r="R30" t="n">
-        <v>321.7715972569774</v>
+        <v>305.0730562521304</v>
       </c>
       <c r="S30" t="n">
-        <v>239.3887186105505</v>
+        <v>305.0730562521304</v>
       </c>
       <c r="T30" t="n">
-        <v>157.0058399641237</v>
+        <v>305.0730562521304</v>
       </c>
       <c r="U30" t="n">
-        <v>157.0058399641237</v>
+        <v>305.0730562521304</v>
       </c>
       <c r="V30" t="n">
-        <v>74.62296131769689</v>
+        <v>305.0730562521304</v>
       </c>
       <c r="W30" t="n">
-        <v>74.62296131769689</v>
+        <v>305.0730562521304</v>
       </c>
       <c r="X30" t="n">
-        <v>74.62296131769689</v>
+        <v>222.6901776057035</v>
       </c>
       <c r="Y30" t="n">
-        <v>74.62296131769689</v>
+        <v>222.6901776057035</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>326.2361994398502</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="C31" t="n">
-        <v>326.2361994398502</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="D31" t="n">
-        <v>326.2361994398502</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="E31" t="n">
-        <v>326.2361994398502</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="F31" t="n">
-        <v>326.2361994398502</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="G31" t="n">
-        <v>326.2361994398502</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="H31" t="n">
-        <v>326.2361994398502</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="I31" t="n">
-        <v>326.2361994398502</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="J31" t="n">
-        <v>326.2361994398502</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="K31" t="n">
-        <v>326.2361994398502</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="L31" t="n">
-        <v>326.2361994398502</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="M31" t="n">
-        <v>326.2361994398502</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="N31" t="n">
-        <v>326.2361994398502</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="O31" t="n">
-        <v>326.2361994398502</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="P31" t="n">
-        <v>326.2361994398502</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="Q31" t="n">
-        <v>326.2361994398502</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="R31" t="n">
-        <v>326.2361994398502</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="S31" t="n">
-        <v>326.2361994398502</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="T31" t="n">
-        <v>326.2361994398502</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="U31" t="n">
-        <v>326.2361994398502</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="V31" t="n">
-        <v>326.2361994398502</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="W31" t="n">
-        <v>326.2361994398502</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="X31" t="n">
-        <v>326.2361994398502</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="Y31" t="n">
-        <v>326.2361994398502</v>
+        <v>326.2361994398507</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>284.736688626862</v>
+        <v>119.9709313340087</v>
       </c>
       <c r="C32" t="n">
-        <v>284.736688626862</v>
+        <v>119.9709313340087</v>
       </c>
       <c r="D32" t="n">
-        <v>284.736688626862</v>
+        <v>119.9709313340087</v>
       </c>
       <c r="E32" t="n">
-        <v>284.736688626862</v>
+        <v>37.58805268758175</v>
       </c>
       <c r="F32" t="n">
-        <v>284.736688626862</v>
+        <v>37.58805268758175</v>
       </c>
       <c r="G32" t="n">
-        <v>204.7530627375576</v>
+        <v>37.58805268758175</v>
       </c>
       <c r="H32" t="n">
-        <v>122.3701840911307</v>
+        <v>37.58805268758175</v>
       </c>
       <c r="I32" t="n">
-        <v>39.9873054447039</v>
+        <v>37.58805268758175</v>
       </c>
       <c r="J32" t="n">
-        <v>6.524723988797005</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="K32" t="n">
-        <v>8.109526444685999</v>
+        <v>8.109526444686091</v>
       </c>
       <c r="L32" t="n">
-        <v>46.97737588697472</v>
+        <v>46.97737588697493</v>
       </c>
       <c r="M32" t="n">
-        <v>121.8947848684448</v>
+        <v>121.8947848684451</v>
       </c>
       <c r="N32" t="n">
-        <v>202.6382442298078</v>
+        <v>202.6382442298082</v>
       </c>
       <c r="O32" t="n">
-        <v>265.5467420423488</v>
+        <v>265.5467420423493</v>
       </c>
       <c r="P32" t="n">
-        <v>284.736688626862</v>
+        <v>284.7366886268626</v>
       </c>
       <c r="Q32" t="n">
-        <v>284.736688626862</v>
+        <v>284.7366886268626</v>
       </c>
       <c r="R32" t="n">
-        <v>284.736688626862</v>
+        <v>284.7366886268626</v>
       </c>
       <c r="S32" t="n">
-        <v>284.736688626862</v>
+        <v>284.7366886268626</v>
       </c>
       <c r="T32" t="n">
-        <v>284.736688626862</v>
+        <v>284.7366886268626</v>
       </c>
       <c r="U32" t="n">
-        <v>284.736688626862</v>
+        <v>284.7366886268626</v>
       </c>
       <c r="V32" t="n">
-        <v>284.736688626862</v>
+        <v>284.7366886268626</v>
       </c>
       <c r="W32" t="n">
-        <v>284.736688626862</v>
+        <v>202.3538099804356</v>
       </c>
       <c r="X32" t="n">
-        <v>284.736688626862</v>
+        <v>202.3538099804356</v>
       </c>
       <c r="Y32" t="n">
-        <v>284.736688626862</v>
+        <v>119.9709313340087</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>140.3072989592763</v>
+        <v>171.2904812816509</v>
       </c>
       <c r="C33" t="n">
-        <v>57.92442031284946</v>
+        <v>171.2904812816509</v>
       </c>
       <c r="D33" t="n">
-        <v>6.524723988797005</v>
+        <v>171.2904812816509</v>
       </c>
       <c r="E33" t="n">
-        <v>6.524723988797005</v>
+        <v>171.2904812816509</v>
       </c>
       <c r="F33" t="n">
-        <v>6.524723988797005</v>
+        <v>88.90760263522395</v>
       </c>
       <c r="G33" t="n">
-        <v>6.524723988797005</v>
+        <v>88.90760263522395</v>
       </c>
       <c r="H33" t="n">
-        <v>6.524723988797005</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="I33" t="n">
-        <v>6.524723988797005</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="J33" t="n">
-        <v>6.524723988797005</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="K33" t="n">
-        <v>19.13102996108365</v>
+        <v>19.13102996108372</v>
       </c>
       <c r="L33" t="n">
-        <v>82.40430521076082</v>
+        <v>82.40430521076098</v>
       </c>
       <c r="M33" t="n">
-        <v>123.3733980376636</v>
+        <v>163.147764572124</v>
       </c>
       <c r="N33" t="n">
-        <v>204.1168573990266</v>
+        <v>204.1168573990269</v>
       </c>
       <c r="O33" t="n">
-        <v>282.5886965582808</v>
+        <v>282.5886965582812</v>
       </c>
       <c r="P33" t="n">
-        <v>326.2361994398502</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="Q33" t="n">
-        <v>305.07305625213</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="R33" t="n">
-        <v>305.07305625213</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="S33" t="n">
-        <v>305.07305625213</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="T33" t="n">
-        <v>305.07305625213</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="U33" t="n">
-        <v>305.07305625213</v>
+        <v>253.6733599280778</v>
       </c>
       <c r="V33" t="n">
-        <v>305.07305625213</v>
+        <v>253.6733599280778</v>
       </c>
       <c r="W33" t="n">
-        <v>305.07305625213</v>
+        <v>171.2904812816509</v>
       </c>
       <c r="X33" t="n">
-        <v>305.07305625213</v>
+        <v>171.2904812816509</v>
       </c>
       <c r="Y33" t="n">
-        <v>222.6901776057031</v>
+        <v>171.2904812816509</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="C34" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="D34" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="E34" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="F34" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="G34" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="H34" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="I34" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="J34" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="K34" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="L34" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="M34" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="N34" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="O34" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="P34" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="Q34" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="R34" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="S34" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="T34" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="U34" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="V34" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="W34" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="X34" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="Y34" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>133.4551052462358</v>
+        <v>69.26931011049321</v>
       </c>
       <c r="C35" t="n">
-        <v>69.26931011049331</v>
+        <v>69.26931011049321</v>
       </c>
       <c r="D35" t="n">
-        <v>69.26931011049331</v>
+        <v>69.26931011049321</v>
       </c>
       <c r="E35" t="n">
-        <v>5.083514974750805</v>
+        <v>69.26931011049321</v>
       </c>
       <c r="F35" t="n">
-        <v>5.083514974750805</v>
+        <v>69.26931011049321</v>
       </c>
       <c r="G35" t="n">
-        <v>5.083514974750805</v>
+        <v>69.26931011049321</v>
       </c>
       <c r="H35" t="n">
-        <v>5.083514974750805</v>
+        <v>69.26931011049321</v>
       </c>
       <c r="I35" t="n">
-        <v>5.083514974750805</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="J35" t="n">
-        <v>5.083514974750805</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="K35" t="n">
-        <v>6.668317430639799</v>
+        <v>6.668317430639877</v>
       </c>
       <c r="L35" t="n">
-        <v>45.53616687292852</v>
+        <v>45.53616687292871</v>
       </c>
       <c r="M35" t="n">
-        <v>108.4446646854697</v>
+        <v>108.4446646854698</v>
       </c>
       <c r="N35" t="n">
         <v>171.353162498011</v>
       </c>
       <c r="O35" t="n">
-        <v>234.261660310552</v>
+        <v>234.2616603105521</v>
       </c>
       <c r="P35" t="n">
-        <v>253.4516068950652</v>
+        <v>253.4516068950654</v>
       </c>
       <c r="Q35" t="n">
-        <v>253.4516068950652</v>
+        <v>253.4516068950654</v>
       </c>
       <c r="R35" t="n">
-        <v>253.4516068950652</v>
+        <v>189.265811759323</v>
       </c>
       <c r="S35" t="n">
-        <v>253.4516068950652</v>
+        <v>189.265811759323</v>
       </c>
       <c r="T35" t="n">
-        <v>253.4516068950652</v>
+        <v>189.265811759323</v>
       </c>
       <c r="U35" t="n">
-        <v>253.4516068950652</v>
+        <v>189.265811759323</v>
       </c>
       <c r="V35" t="n">
-        <v>253.4516068950652</v>
+        <v>189.265811759323</v>
       </c>
       <c r="W35" t="n">
-        <v>253.4516068950652</v>
+        <v>189.265811759323</v>
       </c>
       <c r="X35" t="n">
-        <v>253.4516068950652</v>
+        <v>189.265811759323</v>
       </c>
       <c r="Y35" t="n">
-        <v>197.6409003819783</v>
+        <v>133.4551052462356</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>125.8041584660553</v>
+        <v>125.8041584660551</v>
       </c>
       <c r="C36" t="n">
-        <v>125.8041584660553</v>
+        <v>125.8041584660551</v>
       </c>
       <c r="D36" t="n">
-        <v>125.8041584660553</v>
+        <v>61.61836333031272</v>
       </c>
       <c r="E36" t="n">
-        <v>125.8041584660553</v>
+        <v>61.61836333031272</v>
       </c>
       <c r="F36" t="n">
-        <v>125.8041584660553</v>
+        <v>61.61836333031272</v>
       </c>
       <c r="G36" t="n">
-        <v>69.26931011049331</v>
+        <v>61.61836333031272</v>
       </c>
       <c r="H36" t="n">
-        <v>69.26931011049331</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="I36" t="n">
-        <v>5.083514974750805</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="J36" t="n">
-        <v>5.083514974750805</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="K36" t="n">
-        <v>5.083514974750805</v>
+        <v>17.6898209470375</v>
       </c>
       <c r="L36" t="n">
-        <v>67.99201278729203</v>
+        <v>80.59831875957863</v>
       </c>
       <c r="M36" t="n">
-        <v>130.9005105998332</v>
+        <v>143.5068165721198</v>
       </c>
       <c r="N36" t="n">
-        <v>193.8090084123745</v>
+        <v>206.4153143846609</v>
       </c>
       <c r="O36" t="n">
-        <v>210.5282458559709</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="P36" t="n">
-        <v>254.1757487375403</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="Q36" t="n">
-        <v>254.1757487375403</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="R36" t="n">
-        <v>254.1757487375403</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="S36" t="n">
-        <v>254.1757487375403</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="T36" t="n">
-        <v>254.1757487375403</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="U36" t="n">
-        <v>189.9899536017978</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="V36" t="n">
-        <v>125.8041584660553</v>
+        <v>189.9899536017975</v>
       </c>
       <c r="W36" t="n">
-        <v>125.8041584660553</v>
+        <v>125.8041584660551</v>
       </c>
       <c r="X36" t="n">
-        <v>125.8041584660553</v>
+        <v>125.8041584660551</v>
       </c>
       <c r="Y36" t="n">
-        <v>125.8041584660553</v>
+        <v>125.8041584660551</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>254.1757487375403</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="C37" t="n">
-        <v>254.1757487375403</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="D37" t="n">
-        <v>254.1757487375403</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="E37" t="n">
-        <v>254.1757487375403</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="F37" t="n">
-        <v>254.1757487375403</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="G37" t="n">
-        <v>254.1757487375403</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="H37" t="n">
-        <v>254.1757487375403</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="I37" t="n">
-        <v>254.1757487375403</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="J37" t="n">
-        <v>254.1757487375403</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="K37" t="n">
-        <v>254.1757487375403</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="L37" t="n">
-        <v>254.1757487375403</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="M37" t="n">
-        <v>254.1757487375403</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="N37" t="n">
-        <v>254.1757487375403</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="O37" t="n">
-        <v>254.1757487375403</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="P37" t="n">
-        <v>254.1757487375403</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="Q37" t="n">
-        <v>254.1757487375403</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="R37" t="n">
-        <v>254.1757487375403</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="S37" t="n">
-        <v>254.1757487375403</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="T37" t="n">
-        <v>254.1757487375403</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="U37" t="n">
-        <v>254.1757487375403</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="V37" t="n">
-        <v>254.1757487375403</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="W37" t="n">
-        <v>254.1757487375403</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="X37" t="n">
-        <v>254.1757487375403</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="Y37" t="n">
-        <v>254.1757487375403</v>
+        <v>254.1757487375399</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>60.89422148783785</v>
+        <v>125.0800166235806</v>
       </c>
       <c r="C38" t="n">
-        <v>60.89422148783785</v>
+        <v>102.7318915664</v>
       </c>
       <c r="D38" t="n">
-        <v>60.89422148783785</v>
+        <v>102.7318915664</v>
       </c>
       <c r="E38" t="n">
-        <v>60.89422148783785</v>
+        <v>38.54609643065763</v>
       </c>
       <c r="F38" t="n">
-        <v>60.89422148783785</v>
+        <v>38.54609643065763</v>
       </c>
       <c r="G38" t="n">
-        <v>60.89422148783785</v>
+        <v>38.54609643065763</v>
       </c>
       <c r="H38" t="n">
-        <v>5.08351497475079</v>
+        <v>38.54609643065763</v>
       </c>
       <c r="I38" t="n">
-        <v>5.08351497475079</v>
+        <v>38.54609643065763</v>
       </c>
       <c r="J38" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="K38" t="n">
-        <v>6.668317430639783</v>
+        <v>6.668317430639877</v>
       </c>
       <c r="L38" t="n">
-        <v>45.5361668729285</v>
+        <v>45.53616687292871</v>
       </c>
       <c r="M38" t="n">
-        <v>108.4446646854695</v>
+        <v>108.4446646854698</v>
       </c>
       <c r="N38" t="n">
-        <v>171.3531624980105</v>
+        <v>171.353162498011</v>
       </c>
       <c r="O38" t="n">
-        <v>234.2616603105515</v>
+        <v>234.2616603105521</v>
       </c>
       <c r="P38" t="n">
-        <v>253.4516068950647</v>
+        <v>253.4516068950654</v>
       </c>
       <c r="Q38" t="n">
-        <v>253.4516068950647</v>
+        <v>253.4516068950654</v>
       </c>
       <c r="R38" t="n">
-        <v>253.4516068950647</v>
+        <v>189.265811759323</v>
       </c>
       <c r="S38" t="n">
-        <v>253.4516068950647</v>
+        <v>189.265811759323</v>
       </c>
       <c r="T38" t="n">
-        <v>253.4516068950647</v>
+        <v>189.265811759323</v>
       </c>
       <c r="U38" t="n">
-        <v>253.4516068950647</v>
+        <v>189.265811759323</v>
       </c>
       <c r="V38" t="n">
-        <v>253.4516068950647</v>
+        <v>125.0800166235806</v>
       </c>
       <c r="W38" t="n">
-        <v>189.2658117593224</v>
+        <v>125.0800166235806</v>
       </c>
       <c r="X38" t="n">
-        <v>189.2658117593224</v>
+        <v>125.0800166235806</v>
       </c>
       <c r="Y38" t="n">
-        <v>125.0800166235801</v>
+        <v>125.0800166235806</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="C39" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="D39" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="E39" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="F39" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="G39" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="H39" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="I39" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="J39" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="K39" t="n">
-        <v>17.68982094703744</v>
+        <v>17.6898209470375</v>
       </c>
       <c r="L39" t="n">
-        <v>80.59831875957846</v>
+        <v>80.59831875957863</v>
       </c>
       <c r="M39" t="n">
-        <v>143.5068165721195</v>
+        <v>143.5068165721198</v>
       </c>
       <c r="N39" t="n">
-        <v>206.4153143846605</v>
+        <v>206.4153143846609</v>
       </c>
       <c r="O39" t="n">
-        <v>210.5282458559701</v>
+        <v>210.5282458559705</v>
       </c>
       <c r="P39" t="n">
-        <v>254.1757487375395</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="Q39" t="n">
-        <v>254.1757487375395</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="R39" t="n">
-        <v>254.1757487375395</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="S39" t="n">
-        <v>254.1757487375395</v>
+        <v>189.9899536017975</v>
       </c>
       <c r="T39" t="n">
-        <v>254.1757487375395</v>
+        <v>125.8041584660551</v>
       </c>
       <c r="U39" t="n">
-        <v>254.1757487375395</v>
+        <v>61.61836333031272</v>
       </c>
       <c r="V39" t="n">
-        <v>189.9899536017972</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="W39" t="n">
-        <v>125.8041584660549</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="X39" t="n">
-        <v>61.6183633303126</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="Y39" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750799</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="C40" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="D40" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="E40" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="F40" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="G40" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="H40" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="I40" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="J40" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="K40" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="L40" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="M40" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="N40" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="O40" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="P40" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="Q40" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="R40" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="S40" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="T40" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="U40" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="V40" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="W40" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="X40" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="Y40" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750799</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>125.0800166235801</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="C41" t="n">
-        <v>69.26931011049308</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="D41" t="n">
-        <v>69.26931011049308</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="E41" t="n">
-        <v>69.26931011049308</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="F41" t="n">
-        <v>69.26931011049308</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="G41" t="n">
-        <v>69.26931011049308</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="H41" t="n">
-        <v>69.26931011049308</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="I41" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="J41" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="K41" t="n">
-        <v>6.668317430639783</v>
+        <v>6.668317430639877</v>
       </c>
       <c r="L41" t="n">
-        <v>45.5361668729285</v>
+        <v>45.53616687292871</v>
       </c>
       <c r="M41" t="n">
-        <v>108.4446646854695</v>
+        <v>108.4446646854698</v>
       </c>
       <c r="N41" t="n">
-        <v>171.3531624980105</v>
+        <v>171.353162498011</v>
       </c>
       <c r="O41" t="n">
-        <v>234.2616603105515</v>
+        <v>234.2616603105521</v>
       </c>
       <c r="P41" t="n">
-        <v>253.4516068950647</v>
+        <v>253.4516068950654</v>
       </c>
       <c r="Q41" t="n">
-        <v>253.4516068950647</v>
+        <v>219.0042077555537</v>
       </c>
       <c r="R41" t="n">
-        <v>253.4516068950647</v>
+        <v>154.8184126198113</v>
       </c>
       <c r="S41" t="n">
-        <v>253.4516068950647</v>
+        <v>90.6326174840689</v>
       </c>
       <c r="T41" t="n">
-        <v>189.2658117593224</v>
+        <v>90.6326174840689</v>
       </c>
       <c r="U41" t="n">
-        <v>189.2658117593224</v>
+        <v>90.6326174840689</v>
       </c>
       <c r="V41" t="n">
-        <v>125.0800166235801</v>
+        <v>69.26931011049321</v>
       </c>
       <c r="W41" t="n">
-        <v>125.0800166235801</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="X41" t="n">
-        <v>125.0800166235801</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="Y41" t="n">
-        <v>125.0800166235801</v>
+        <v>5.083514974750799</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>108.3993198579225</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="C42" t="n">
-        <v>108.3993198579225</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="D42" t="n">
-        <v>108.3993198579225</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="E42" t="n">
-        <v>108.3993198579225</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="F42" t="n">
-        <v>108.3993198579225</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="G42" t="n">
-        <v>108.3993198579225</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="H42" t="n">
-        <v>108.3993198579225</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="I42" t="n">
-        <v>44.2135247221802</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="J42" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="K42" t="n">
-        <v>17.68982094703744</v>
+        <v>17.6898209470375</v>
       </c>
       <c r="L42" t="n">
-        <v>80.59831875957846</v>
+        <v>21.80275241834712</v>
       </c>
       <c r="M42" t="n">
-        <v>143.5068165721195</v>
+        <v>84.71125023088825</v>
       </c>
       <c r="N42" t="n">
-        <v>206.4153143846605</v>
+        <v>147.6197480434294</v>
       </c>
       <c r="O42" t="n">
-        <v>210.5282458559701</v>
+        <v>210.5282458559705</v>
       </c>
       <c r="P42" t="n">
-        <v>254.1757487375395</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="Q42" t="n">
-        <v>236.7709101294071</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="R42" t="n">
-        <v>172.5851149936648</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="S42" t="n">
-        <v>108.3993198579225</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="T42" t="n">
-        <v>108.3993198579225</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="U42" t="n">
-        <v>108.3993198579225</v>
+        <v>189.9899536017975</v>
       </c>
       <c r="V42" t="n">
-        <v>108.3993198579225</v>
+        <v>189.9899536017975</v>
       </c>
       <c r="W42" t="n">
-        <v>108.3993198579225</v>
+        <v>189.9899536017975</v>
       </c>
       <c r="X42" t="n">
-        <v>108.3993198579225</v>
+        <v>125.8041584660551</v>
       </c>
       <c r="Y42" t="n">
-        <v>108.3993198579225</v>
+        <v>61.61836333031272</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>5.08351497475079</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="C43" t="n">
-        <v>5.08351497475079</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="D43" t="n">
-        <v>5.08351497475079</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="E43" t="n">
-        <v>5.08351497475079</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="F43" t="n">
-        <v>5.08351497475079</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="G43" t="n">
-        <v>5.08351497475079</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="H43" t="n">
-        <v>5.08351497475079</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="I43" t="n">
-        <v>5.08351497475079</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="J43" t="n">
-        <v>5.08351497475079</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="K43" t="n">
-        <v>5.08351497475079</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="L43" t="n">
-        <v>5.08351497475079</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="M43" t="n">
-        <v>5.08351497475079</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="N43" t="n">
-        <v>5.08351497475079</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="O43" t="n">
-        <v>5.08351497475079</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="P43" t="n">
-        <v>5.08351497475079</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="Q43" t="n">
-        <v>5.08351497475079</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="R43" t="n">
-        <v>5.08351497475079</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="S43" t="n">
-        <v>5.08351497475079</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="T43" t="n">
-        <v>5.08351497475079</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="U43" t="n">
-        <v>5.08351497475079</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="V43" t="n">
-        <v>5.08351497475079</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="W43" t="n">
-        <v>5.08351497475079</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="X43" t="n">
-        <v>5.08351497475079</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="Y43" t="n">
-        <v>5.08351497475079</v>
+        <v>254.1757487375399</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>56.04615233729822</v>
+        <v>4.113097910594909</v>
       </c>
       <c r="C44" t="n">
-        <v>56.04615233729822</v>
+        <v>4.113097910594909</v>
       </c>
       <c r="D44" t="n">
-        <v>4.113097910594902</v>
+        <v>4.113097910594909</v>
       </c>
       <c r="E44" t="n">
-        <v>4.113097910594902</v>
+        <v>4.113097910594909</v>
       </c>
       <c r="F44" t="n">
-        <v>4.113097910594902</v>
+        <v>4.113097910594909</v>
       </c>
       <c r="G44" t="n">
-        <v>4.113097910594902</v>
+        <v>4.113097910594909</v>
       </c>
       <c r="H44" t="n">
-        <v>4.113097910594902</v>
+        <v>4.113097910594909</v>
       </c>
       <c r="I44" t="n">
-        <v>4.113097910594902</v>
+        <v>4.113097910594909</v>
       </c>
       <c r="J44" t="n">
-        <v>4.113097910594902</v>
+        <v>4.113097910594909</v>
       </c>
       <c r="K44" t="n">
-        <v>5.697900366483895</v>
+        <v>5.697900366483987</v>
       </c>
       <c r="L44" t="n">
-        <v>44.56574980877262</v>
+        <v>44.56574980877282</v>
       </c>
       <c r="M44" t="n">
-        <v>95.46533645238453</v>
+        <v>84.6657756580082</v>
       </c>
       <c r="N44" t="n">
-        <v>135.56536230162</v>
+        <v>135.5653623016202</v>
       </c>
       <c r="O44" t="n">
-        <v>186.4649489452319</v>
+        <v>186.4649489452322</v>
       </c>
       <c r="P44" t="n">
-        <v>205.6548955297451</v>
+        <v>205.6548955297455</v>
       </c>
       <c r="Q44" t="n">
-        <v>205.6548955297451</v>
+        <v>205.6548955297455</v>
       </c>
       <c r="R44" t="n">
-        <v>205.6548955297451</v>
+        <v>205.6548955297455</v>
       </c>
       <c r="S44" t="n">
-        <v>205.6548955297451</v>
+        <v>205.6548955297455</v>
       </c>
       <c r="T44" t="n">
-        <v>205.6548955297451</v>
+        <v>205.6548955297455</v>
       </c>
       <c r="U44" t="n">
-        <v>159.9122611907048</v>
+        <v>153.7218411030421</v>
       </c>
       <c r="V44" t="n">
-        <v>107.9792067640015</v>
+        <v>101.7887866763387</v>
       </c>
       <c r="W44" t="n">
-        <v>56.04615233729822</v>
+        <v>56.04615233729832</v>
       </c>
       <c r="X44" t="n">
-        <v>56.04615233729822</v>
+        <v>4.113097910594909</v>
       </c>
       <c r="Y44" t="n">
-        <v>56.04615233729822</v>
+        <v>4.113097910594909</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>4.113097910594902</v>
+        <v>56.04615233729832</v>
       </c>
       <c r="C45" t="n">
-        <v>4.113097910594902</v>
+        <v>56.04615233729832</v>
       </c>
       <c r="D45" t="n">
-        <v>4.113097910594902</v>
+        <v>4.113097910594909</v>
       </c>
       <c r="E45" t="n">
-        <v>4.113097910594902</v>
+        <v>4.113097910594909</v>
       </c>
       <c r="F45" t="n">
-        <v>4.113097910594902</v>
+        <v>4.113097910594909</v>
       </c>
       <c r="G45" t="n">
-        <v>4.113097910594902</v>
+        <v>4.113097910594909</v>
       </c>
       <c r="H45" t="n">
-        <v>4.113097910594902</v>
+        <v>4.113097910594909</v>
       </c>
       <c r="I45" t="n">
-        <v>4.113097910594902</v>
+        <v>4.113097910594909</v>
       </c>
       <c r="J45" t="n">
-        <v>4.113097910594902</v>
+        <v>4.113097910594909</v>
       </c>
       <c r="K45" t="n">
-        <v>16.71940388288155</v>
+        <v>4.113097910594909</v>
       </c>
       <c r="L45" t="n">
-        <v>67.61899052649346</v>
+        <v>55.01268455420692</v>
       </c>
       <c r="M45" t="n">
-        <v>118.5185771701054</v>
+        <v>105.9122711978189</v>
       </c>
       <c r="N45" t="n">
-        <v>162.0073926481758</v>
+        <v>156.8118578414309</v>
       </c>
       <c r="O45" t="n">
-        <v>162.0073926481758</v>
+        <v>205.6548955297455</v>
       </c>
       <c r="P45" t="n">
-        <v>205.6548955297451</v>
+        <v>205.6548955297455</v>
       </c>
       <c r="Q45" t="n">
-        <v>205.6548955297451</v>
+        <v>184.4917523420253</v>
       </c>
       <c r="R45" t="n">
-        <v>205.6548955297451</v>
+        <v>159.9122611907051</v>
       </c>
       <c r="S45" t="n">
-        <v>153.7218411030418</v>
+        <v>159.9122611907051</v>
       </c>
       <c r="T45" t="n">
-        <v>153.7218411030418</v>
+        <v>159.9122611907051</v>
       </c>
       <c r="U45" t="n">
-        <v>101.7887866763385</v>
+        <v>107.9792067640017</v>
       </c>
       <c r="V45" t="n">
-        <v>101.7887866763385</v>
+        <v>56.04615233729832</v>
       </c>
       <c r="W45" t="n">
-        <v>49.85573224963519</v>
+        <v>56.04615233729832</v>
       </c>
       <c r="X45" t="n">
-        <v>49.85573224963519</v>
+        <v>56.04615233729832</v>
       </c>
       <c r="Y45" t="n">
-        <v>4.113097910594902</v>
+        <v>56.04615233729832</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>205.6548955297451</v>
+        <v>4.113097910594909</v>
       </c>
       <c r="C46" t="n">
-        <v>205.6548955297451</v>
+        <v>4.113097910594909</v>
       </c>
       <c r="D46" t="n">
-        <v>205.6548955297451</v>
+        <v>4.113097910594909</v>
       </c>
       <c r="E46" t="n">
-        <v>205.6548955297451</v>
+        <v>4.113097910594909</v>
       </c>
       <c r="F46" t="n">
-        <v>205.6548955297451</v>
+        <v>4.113097910594909</v>
       </c>
       <c r="G46" t="n">
-        <v>205.6548955297451</v>
+        <v>4.113097910594909</v>
       </c>
       <c r="H46" t="n">
-        <v>205.6548955297451</v>
+        <v>4.113097910594909</v>
       </c>
       <c r="I46" t="n">
-        <v>205.6548955297451</v>
+        <v>4.113097910594909</v>
       </c>
       <c r="J46" t="n">
-        <v>205.6548955297451</v>
+        <v>4.113097910594909</v>
       </c>
       <c r="K46" t="n">
-        <v>205.6548955297451</v>
+        <v>4.113097910594909</v>
       </c>
       <c r="L46" t="n">
-        <v>205.6548955297451</v>
+        <v>4.113097910594909</v>
       </c>
       <c r="M46" t="n">
-        <v>205.6548955297451</v>
+        <v>4.113097910594909</v>
       </c>
       <c r="N46" t="n">
-        <v>205.6548955297451</v>
+        <v>4.113097910594909</v>
       </c>
       <c r="O46" t="n">
-        <v>205.6548955297451</v>
+        <v>4.113097910594909</v>
       </c>
       <c r="P46" t="n">
-        <v>205.6548955297451</v>
+        <v>4.113097910594909</v>
       </c>
       <c r="Q46" t="n">
-        <v>205.6548955297451</v>
+        <v>4.113097910594909</v>
       </c>
       <c r="R46" t="n">
-        <v>205.6548955297451</v>
+        <v>4.113097910594909</v>
       </c>
       <c r="S46" t="n">
-        <v>205.6548955297451</v>
+        <v>4.113097910594909</v>
       </c>
       <c r="T46" t="n">
-        <v>205.6548955297451</v>
+        <v>4.113097910594909</v>
       </c>
       <c r="U46" t="n">
-        <v>205.6548955297451</v>
+        <v>4.113097910594909</v>
       </c>
       <c r="V46" t="n">
-        <v>205.6548955297451</v>
+        <v>4.113097910594909</v>
       </c>
       <c r="W46" t="n">
-        <v>205.6548955297451</v>
+        <v>4.113097910594909</v>
       </c>
       <c r="X46" t="n">
-        <v>205.6548955297451</v>
+        <v>4.113097910594909</v>
       </c>
       <c r="Y46" t="n">
-        <v>205.6548955297451</v>
+        <v>4.113097910594909</v>
       </c>
     </row>
   </sheetData>
@@ -23267,16 +23267,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>384.751401935103</v>
+        <v>384.7514019351028</v>
       </c>
       <c r="G11" t="n">
-        <v>350.0160005972008</v>
+        <v>350.0160005972007</v>
       </c>
       <c r="H11" t="n">
-        <v>258.0824171601695</v>
+        <v>258.0824171601694</v>
       </c>
       <c r="I11" t="n">
-        <v>79.74266565835777</v>
+        <v>79.74266565835762</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23300,13 +23300,13 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>34.10292514811664</v>
+        <v>34.10292514811658</v>
       </c>
       <c r="R11" t="n">
-        <v>106.1093940515596</v>
+        <v>106.1093940515595</v>
       </c>
       <c r="S11" t="n">
-        <v>169.3060206579884</v>
+        <v>169.3060206579883</v>
       </c>
       <c r="T11" t="n">
         <v>215.4667437305189</v>
@@ -23352,13 +23352,13 @@
         <v>136.4110370982271</v>
       </c>
       <c r="H12" t="n">
-        <v>103.2296499246818</v>
+        <v>39.68571274029687</v>
       </c>
       <c r="I12" t="n">
-        <v>50.18646473355981</v>
+        <v>67.41725495561087</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>38.73870964995508</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23379,10 +23379,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>20.95151175584309</v>
+        <v>20.95151175584304</v>
       </c>
       <c r="R12" t="n">
-        <v>87.78394343805664</v>
+        <v>87.78394343805661</v>
       </c>
       <c r="S12" t="n">
         <v>154.3627628792534</v>
@@ -23397,13 +23397,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>188.1510459765347</v>
+        <v>188.1510459765346</v>
       </c>
       <c r="X12" t="n">
-        <v>142.2290480190926</v>
+        <v>142.2290480190925</v>
       </c>
       <c r="Y12" t="n">
-        <v>142.1387585929195</v>
+        <v>149.7131959052981</v>
       </c>
     </row>
     <row r="13">
@@ -23437,28 +23437,28 @@
         <v>131.9408207838627</v>
       </c>
       <c r="J13" t="n">
-        <v>71.72499209441816</v>
+        <v>71.72499209441814</v>
       </c>
       <c r="K13" t="n">
-        <v>38.18696435173403</v>
+        <v>38.18696435173401</v>
       </c>
       <c r="L13" t="n">
-        <v>18.65829059167039</v>
+        <v>18.65829059167034</v>
       </c>
       <c r="M13" t="n">
-        <v>16.38135637971838</v>
+        <v>16.38135637971834</v>
       </c>
       <c r="N13" t="n">
-        <v>8.054949484647565</v>
+        <v>8.054949484647508</v>
       </c>
       <c r="O13" t="n">
-        <v>27.95832121438394</v>
+        <v>27.9583212143839</v>
       </c>
       <c r="P13" t="n">
-        <v>43.17769004560044</v>
+        <v>43.17769004560041</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.04326513766341</v>
+        <v>86.0432651376634</v>
       </c>
       <c r="R13" t="n">
         <v>142.1426207020684</v>
@@ -23492,16 +23492,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>319.1899044790957</v>
+        <v>319.1899044790956</v>
       </c>
       <c r="C14" t="n">
-        <v>343.1482479643992</v>
+        <v>301.7289545866226</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>291.139104436298</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>359.805726265653</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -23537,13 +23537,13 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>34.10292514811664</v>
+        <v>34.10292514811658</v>
       </c>
       <c r="R14" t="n">
-        <v>106.1093940515596</v>
+        <v>106.1093940515595</v>
       </c>
       <c r="S14" t="n">
-        <v>169.3060206579884</v>
+        <v>169.3060206579883</v>
       </c>
       <c r="T14" t="n">
         <v>215.4667437305189</v>
@@ -23555,13 +23555,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>285.6970315330282</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>322.6940014716687</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23574,25 +23574,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>109.1645618039309</v>
+        <v>109.1645618039308</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>130.2142753425876</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>94.10114327101599</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>119.180246876176</v>
+        <v>136.4110370982271</v>
       </c>
       <c r="H15" t="n">
-        <v>39.68571274029696</v>
+        <v>103.2296499246818</v>
       </c>
       <c r="I15" t="n">
-        <v>3.873317771226013</v>
+        <v>67.41725495561087</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23616,10 +23616,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>20.95151175584309</v>
+        <v>20.95151175584304</v>
       </c>
       <c r="R15" t="n">
-        <v>87.78394343805664</v>
+        <v>87.78394343805661</v>
       </c>
       <c r="S15" t="n">
         <v>154.3627628792534</v>
@@ -23637,7 +23637,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>142.2290480190925</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23674,28 +23674,28 @@
         <v>131.9408207838627</v>
       </c>
       <c r="J16" t="n">
-        <v>71.72499209441816</v>
+        <v>71.72499209441814</v>
       </c>
       <c r="K16" t="n">
-        <v>38.18696435173403</v>
+        <v>38.18696435173401</v>
       </c>
       <c r="L16" t="n">
-        <v>18.65829059167039</v>
+        <v>18.65829059167034</v>
       </c>
       <c r="M16" t="n">
-        <v>16.38135637971838</v>
+        <v>16.38135637971834</v>
       </c>
       <c r="N16" t="n">
-        <v>8.054949484647565</v>
+        <v>8.054949484647508</v>
       </c>
       <c r="O16" t="n">
-        <v>27.95832121438394</v>
+        <v>27.9583212143839</v>
       </c>
       <c r="P16" t="n">
-        <v>43.17769004560044</v>
+        <v>43.17769004560041</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.04326513766341</v>
+        <v>86.0432651376634</v>
       </c>
       <c r="R16" t="n">
         <v>142.1426207020684</v>
@@ -23741,19 +23741,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>384.751401935103</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>350.0160005972008</v>
+        <v>413.5599377815856</v>
       </c>
       <c r="H17" t="n">
-        <v>258.0824171601695</v>
+        <v>321.6263543445543</v>
       </c>
       <c r="I17" t="n">
-        <v>79.74266565835777</v>
+        <v>143.2866028427426</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.97828134150789</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23774,16 +23774,16 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>34.10292514811664</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>106.1093940515596</v>
+        <v>42.56545686717455</v>
       </c>
       <c r="S17" t="n">
-        <v>169.3060206579884</v>
+        <v>105.7620834736034</v>
       </c>
       <c r="T17" t="n">
-        <v>215.4667437305189</v>
+        <v>151.9228065461339</v>
       </c>
       <c r="U17" t="n">
         <v>251.2062289291525</v>
@@ -23814,7 +23814,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>83.90112838025379</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
@@ -23826,13 +23826,13 @@
         <v>136.4110370982271</v>
       </c>
       <c r="H18" t="n">
-        <v>103.2296499246818</v>
+        <v>39.68571274029687</v>
       </c>
       <c r="I18" t="n">
-        <v>67.41725495561089</v>
+        <v>32.39926683944766</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>38.73870964995508</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23853,10 +23853,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>20.95151175584309</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>87.78394343805664</v>
+        <v>87.78394343805661</v>
       </c>
       <c r="S18" t="n">
         <v>154.3627628792534</v>
@@ -23868,16 +23868,16 @@
         <v>225.8800347082785</v>
       </c>
       <c r="V18" t="n">
-        <v>169.2566499650404</v>
+        <v>169.2566499650403</v>
       </c>
       <c r="W18" t="n">
-        <v>188.1510459765347</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>142.2290480190926</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>188.4519055552533</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23911,28 +23911,28 @@
         <v>131.9408207838627</v>
       </c>
       <c r="J19" t="n">
-        <v>71.72499209441816</v>
+        <v>71.72499209441814</v>
       </c>
       <c r="K19" t="n">
-        <v>38.18696435173403</v>
+        <v>38.18696435173401</v>
       </c>
       <c r="L19" t="n">
-        <v>18.65829059167039</v>
+        <v>18.65829059167034</v>
       </c>
       <c r="M19" t="n">
-        <v>16.38135637971838</v>
+        <v>16.38135637971834</v>
       </c>
       <c r="N19" t="n">
-        <v>8.054949484647565</v>
+        <v>8.054949484647508</v>
       </c>
       <c r="O19" t="n">
-        <v>27.95832121438394</v>
+        <v>27.9583212143839</v>
       </c>
       <c r="P19" t="n">
-        <v>43.17769004560044</v>
+        <v>43.17769004560041</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.04326513766341</v>
+        <v>86.0432651376634</v>
       </c>
       <c r="R19" t="n">
         <v>142.1426207020684</v>
@@ -23978,16 +23978,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>331.2018952553778</v>
       </c>
       <c r="G20" t="n">
-        <v>337.8857872952522</v>
+        <v>413.5599377815856</v>
       </c>
       <c r="H20" t="n">
-        <v>312.114706329312</v>
+        <v>312.1147063293118</v>
       </c>
       <c r="I20" t="n">
-        <v>67.61245235640919</v>
+        <v>67.61245235640901</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24011,13 +24011,13 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>34.10292514811664</v>
+        <v>34.10292514811658</v>
       </c>
       <c r="R20" t="n">
-        <v>106.1093940515596</v>
+        <v>106.1093940515595</v>
       </c>
       <c r="S20" t="n">
-        <v>169.3060206579884</v>
+        <v>169.3060206579883</v>
       </c>
       <c r="T20" t="n">
         <v>215.4667437305189</v>
@@ -24026,10 +24026,10 @@
         <v>251.2062289291525</v>
       </c>
       <c r="V20" t="n">
-        <v>252.0781079838015</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>273.5668182310794</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24045,31 +24045,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>159.5696133073029</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>97.03434850198217</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>81.9709299690675</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>69.39506190705043</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.4110370982271</v>
+        <v>60.73688661189352</v>
       </c>
       <c r="H21" t="n">
         <v>103.2296499246818</v>
       </c>
       <c r="I21" t="n">
-        <v>67.41725495561089</v>
+        <v>67.41725495561087</v>
       </c>
       <c r="J21" t="n">
-        <v>38.73870964995511</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24090,16 +24090,16 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>20.95151175584309</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>21.13015168969415</v>
+        <v>87.78394343805661</v>
       </c>
       <c r="S21" t="n">
-        <v>154.3627628792534</v>
+        <v>78.68861239291981</v>
       </c>
       <c r="T21" t="n">
-        <v>120.7320291746291</v>
+        <v>196.4061796609626</v>
       </c>
       <c r="U21" t="n">
         <v>225.8800347082785</v>
@@ -24148,28 +24148,28 @@
         <v>131.9408207838627</v>
       </c>
       <c r="J22" t="n">
-        <v>71.72499209441816</v>
+        <v>71.72499209441814</v>
       </c>
       <c r="K22" t="n">
-        <v>38.18696435173403</v>
+        <v>38.18696435173401</v>
       </c>
       <c r="L22" t="n">
-        <v>18.65829059167039</v>
+        <v>18.65829059167034</v>
       </c>
       <c r="M22" t="n">
-        <v>16.38135637971838</v>
+        <v>16.38135637971834</v>
       </c>
       <c r="N22" t="n">
-        <v>8.054949484647565</v>
+        <v>8.054949484647508</v>
       </c>
       <c r="O22" t="n">
-        <v>27.95832121438394</v>
+        <v>27.9583212143839</v>
       </c>
       <c r="P22" t="n">
-        <v>43.17769004560044</v>
+        <v>43.17769004560041</v>
       </c>
       <c r="Q22" t="n">
-        <v>86.04326513766341</v>
+        <v>86.0432651376634</v>
       </c>
       <c r="R22" t="n">
         <v>142.1426207020684</v>
@@ -24206,16 +24206,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>334.5201963592107</v>
       </c>
       <c r="D23" t="n">
-        <v>273.1239917607204</v>
+        <v>273.1239917607203</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>325.3169958817489</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>413.5599377815856</v>
@@ -24224,10 +24224,10 @@
         <v>321.6263543445543</v>
       </c>
       <c r="I23" t="n">
-        <v>61.72755298278008</v>
+        <v>143.2866028427426</v>
       </c>
       <c r="J23" t="n">
-        <v>33.12795564134782</v>
+        <v>33.12795564134777</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24248,13 +24248,13 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>34.10292514811664</v>
+        <v>34.10292514811658</v>
       </c>
       <c r="R23" t="n">
-        <v>106.1093940515596</v>
+        <v>106.1093940515595</v>
       </c>
       <c r="S23" t="n">
-        <v>138.5533252461917</v>
+        <v>87.74697079802567</v>
       </c>
       <c r="T23" t="n">
         <v>215.4667437305189</v>
@@ -24272,7 +24272,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>304.6788887960909</v>
       </c>
     </row>
     <row r="24">
@@ -24297,16 +24297,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>64.57382598157211</v>
+        <v>136.4110370982271</v>
       </c>
       <c r="H24" t="n">
         <v>103.2296499246818</v>
       </c>
       <c r="I24" t="n">
-        <v>67.41725495561089</v>
+        <v>67.41725495561087</v>
       </c>
       <c r="J24" t="n">
-        <v>38.73870964995511</v>
+        <v>38.73870964995508</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24327,31 +24327,31 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>20.95151175584309</v>
+        <v>20.95151175584304</v>
       </c>
       <c r="R24" t="n">
-        <v>87.78394343805664</v>
+        <v>87.78394343805661</v>
       </c>
       <c r="S24" t="n">
         <v>154.3627628792534</v>
       </c>
       <c r="T24" t="n">
-        <v>114.847129801</v>
+        <v>196.4061796609626</v>
       </c>
       <c r="U24" t="n">
         <v>225.8800347082785</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>151.2415372894626</v>
       </c>
       <c r="W24" t="n">
-        <v>170.135933300957</v>
+        <v>179.8577720442645</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>124.2139353435148</v>
       </c>
       <c r="Y24" t="n">
-        <v>124.1236459173418</v>
+        <v>124.1236459173417</v>
       </c>
     </row>
     <row r="25">
@@ -24385,28 +24385,28 @@
         <v>131.9408207838627</v>
       </c>
       <c r="J25" t="n">
-        <v>71.72499209441816</v>
+        <v>71.72499209441814</v>
       </c>
       <c r="K25" t="n">
-        <v>38.18696435173403</v>
+        <v>38.18696435173401</v>
       </c>
       <c r="L25" t="n">
-        <v>18.65829059167039</v>
+        <v>18.65829059167034</v>
       </c>
       <c r="M25" t="n">
-        <v>16.38135637971838</v>
+        <v>16.38135637971834</v>
       </c>
       <c r="N25" t="n">
-        <v>8.054949484647565</v>
+        <v>8.054949484647508</v>
       </c>
       <c r="O25" t="n">
-        <v>27.95832121438394</v>
+        <v>27.9583212143839</v>
       </c>
       <c r="P25" t="n">
-        <v>43.17769004560044</v>
+        <v>43.17769004560041</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.04326513766341</v>
+        <v>86.0432651376634</v>
       </c>
       <c r="R25" t="n">
         <v>142.1426207020684</v>
@@ -24455,16 +24455,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>332.0008879216231</v>
+        <v>413.5599377815856</v>
       </c>
       <c r="H26" t="n">
-        <v>240.0673044845918</v>
+        <v>321.6263543445543</v>
       </c>
       <c r="I26" t="n">
-        <v>61.72755298278008</v>
+        <v>143.2866028427426</v>
       </c>
       <c r="J26" t="n">
-        <v>2.375260229551156</v>
+        <v>33.12795564134777</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24485,16 +24485,16 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>34.10292514811664</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>106.1093940515596</v>
+        <v>24.55034419159685</v>
       </c>
       <c r="S26" t="n">
-        <v>169.3060206579884</v>
+        <v>91.09720053434536</v>
       </c>
       <c r="T26" t="n">
-        <v>215.4667437305189</v>
+        <v>133.9076938705562</v>
       </c>
       <c r="U26" t="n">
         <v>251.2062289291525</v>
@@ -24522,7 +24522,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>91.14944912835318</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24540,10 +24540,10 @@
         <v>103.2296499246818</v>
       </c>
       <c r="I27" t="n">
-        <v>67.41725495561089</v>
+        <v>67.41725495561087</v>
       </c>
       <c r="J27" t="n">
-        <v>38.73870964995511</v>
+        <v>38.73870964995508</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24567,28 +24567,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>87.78394343805664</v>
+        <v>6.224893578093941</v>
       </c>
       <c r="S27" t="n">
-        <v>154.3627628792534</v>
+        <v>72.80371301929071</v>
       </c>
       <c r="T27" t="n">
-        <v>196.4061796609626</v>
+        <v>114.8471298009999</v>
       </c>
       <c r="U27" t="n">
-        <v>225.8800347082785</v>
+        <v>174.9943353474665</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>170.135933300957</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>124.2139353435149</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>154.7969964164924</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24622,28 +24622,28 @@
         <v>131.9408207838627</v>
       </c>
       <c r="J28" t="n">
-        <v>71.72499209441816</v>
+        <v>71.72499209441814</v>
       </c>
       <c r="K28" t="n">
-        <v>38.18696435173403</v>
+        <v>38.18696435173401</v>
       </c>
       <c r="L28" t="n">
-        <v>18.65829059167039</v>
+        <v>18.65829059167034</v>
       </c>
       <c r="M28" t="n">
-        <v>16.38135637971838</v>
+        <v>16.38135637971834</v>
       </c>
       <c r="N28" t="n">
-        <v>8.054949484647565</v>
+        <v>8.054949484647508</v>
       </c>
       <c r="O28" t="n">
-        <v>27.95832121438394</v>
+        <v>27.9583212143839</v>
       </c>
       <c r="P28" t="n">
-        <v>43.17769004560044</v>
+        <v>43.17769004560041</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.04326513766341</v>
+        <v>86.0432651376634</v>
       </c>
       <c r="R28" t="n">
         <v>142.1426207020684</v>
@@ -24689,19 +24689,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>376.1233503299148</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>332.0008879216231</v>
+        <v>413.5599377815856</v>
       </c>
       <c r="H29" t="n">
-        <v>240.0673044845918</v>
+        <v>321.6263543445543</v>
       </c>
       <c r="I29" t="n">
-        <v>61.72755298278008</v>
+        <v>143.2866028427426</v>
       </c>
       <c r="J29" t="n">
-        <v>33.12795564134782</v>
+        <v>33.12795564134777</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24722,16 +24722,16 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>34.10292514811664</v>
+        <v>34.10292514811658</v>
       </c>
       <c r="R29" t="n">
-        <v>106.1093940515596</v>
+        <v>106.1093940515595</v>
       </c>
       <c r="S29" t="n">
-        <v>169.3060206579884</v>
+        <v>169.3060206579883</v>
       </c>
       <c r="T29" t="n">
-        <v>215.4667437305189</v>
+        <v>133.9076938705562</v>
       </c>
       <c r="U29" t="n">
         <v>251.2062289291525</v>
@@ -24740,13 +24740,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>267.6819188574503</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>288.1720508185064</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>355.4852432442567</v>
       </c>
     </row>
     <row r="30">
@@ -24771,16 +24771,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>136.4110370982271</v>
+        <v>54.85198723826443</v>
       </c>
       <c r="H30" t="n">
-        <v>103.2296499246818</v>
+        <v>21.67060006471917</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>16.53155559479884</v>
       </c>
       <c r="J30" t="n">
-        <v>38.73870964995511</v>
+        <v>38.73870964995508</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24801,28 +24801,28 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>16.53155559479896</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>87.78394343805664</v>
+        <v>87.78394343805661</v>
       </c>
       <c r="S30" t="n">
-        <v>72.80371301929083</v>
+        <v>154.3627628792534</v>
       </c>
       <c r="T30" t="n">
-        <v>114.847129801</v>
+        <v>196.4061796609626</v>
       </c>
       <c r="U30" t="n">
         <v>225.8800347082785</v>
       </c>
       <c r="V30" t="n">
-        <v>151.2415372894627</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>124.2139353435148</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24859,28 +24859,28 @@
         <v>131.9408207838627</v>
       </c>
       <c r="J31" t="n">
-        <v>71.72499209441816</v>
+        <v>71.72499209441814</v>
       </c>
       <c r="K31" t="n">
-        <v>38.18696435173403</v>
+        <v>38.18696435173401</v>
       </c>
       <c r="L31" t="n">
-        <v>18.65829059167039</v>
+        <v>18.65829059167034</v>
       </c>
       <c r="M31" t="n">
-        <v>16.38135637971838</v>
+        <v>16.38135637971834</v>
       </c>
       <c r="N31" t="n">
-        <v>8.054949484647565</v>
+        <v>8.054949484647508</v>
       </c>
       <c r="O31" t="n">
-        <v>27.95832121438394</v>
+        <v>27.9583212143839</v>
       </c>
       <c r="P31" t="n">
-        <v>43.17769004560044</v>
+        <v>43.17769004560041</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.04326513766341</v>
+        <v>86.0432651376634</v>
       </c>
       <c r="R31" t="n">
         <v>142.1426207020684</v>
@@ -24923,22 +24923,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>300.3713202122991</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>334.3761481511742</v>
+        <v>413.5599377815856</v>
       </c>
       <c r="H32" t="n">
-        <v>240.0673044845918</v>
+        <v>321.6263543445543</v>
       </c>
       <c r="I32" t="n">
-        <v>61.72755298278008</v>
+        <v>143.2866028427426</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>2.375260229550879</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24959,13 +24959,13 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>34.10292514811664</v>
+        <v>34.10292514811658</v>
       </c>
       <c r="R32" t="n">
-        <v>106.1093940515596</v>
+        <v>106.1093940515595</v>
       </c>
       <c r="S32" t="n">
-        <v>169.3060206579884</v>
+        <v>169.3060206579883</v>
       </c>
       <c r="T32" t="n">
         <v>215.4667437305189</v>
@@ -24977,13 +24977,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>267.6819188574503</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>304.6788887960909</v>
       </c>
     </row>
     <row r="33">
@@ -24993,31 +24993,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>84.97413378990478</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>91.14944912835318</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>96.55936620382683</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>63.51016253342121</v>
       </c>
       <c r="G33" t="n">
         <v>136.4110370982271</v>
       </c>
       <c r="H33" t="n">
-        <v>103.2296499246818</v>
+        <v>21.67060006471917</v>
       </c>
       <c r="I33" t="n">
-        <v>67.41725495561089</v>
+        <v>67.41725495561087</v>
       </c>
       <c r="J33" t="n">
-        <v>38.73870964995511</v>
+        <v>38.73870964995508</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25038,10 +25038,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>20.95151175584304</v>
       </c>
       <c r="R33" t="n">
-        <v>87.78394343805664</v>
+        <v>87.78394343805661</v>
       </c>
       <c r="S33" t="n">
         <v>154.3627628792534</v>
@@ -25050,19 +25050,19 @@
         <v>196.4061796609626</v>
       </c>
       <c r="U33" t="n">
-        <v>225.8800347082785</v>
+        <v>154.0428235916235</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>170.1359333009569</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>124.1236459173418</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25096,28 +25096,28 @@
         <v>131.9408207838627</v>
       </c>
       <c r="J34" t="n">
-        <v>71.72499209441816</v>
+        <v>71.72499209441814</v>
       </c>
       <c r="K34" t="n">
-        <v>38.18696435173403</v>
+        <v>38.18696435173401</v>
       </c>
       <c r="L34" t="n">
-        <v>18.65829059167039</v>
+        <v>18.65829059167034</v>
       </c>
       <c r="M34" t="n">
-        <v>16.38135637971838</v>
+        <v>16.38135637971834</v>
       </c>
       <c r="N34" t="n">
-        <v>8.054949484647565</v>
+        <v>8.054949484647508</v>
       </c>
       <c r="O34" t="n">
-        <v>27.95832121438394</v>
+        <v>27.9583212143839</v>
       </c>
       <c r="P34" t="n">
-        <v>43.17769004560044</v>
+        <v>43.17769004560041</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.04326513766341</v>
+        <v>86.0432651376634</v>
       </c>
       <c r="R34" t="n">
         <v>142.1426207020684</v>
@@ -25151,16 +25151,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>319.1899044790955</v>
+        <v>319.1899044790956</v>
       </c>
       <c r="C35" t="n">
-        <v>301.7289545866225</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>318.3864328878767</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -25172,10 +25172,10 @@
         <v>321.6263543445543</v>
       </c>
       <c r="I35" t="n">
-        <v>143.2866028427426</v>
+        <v>79.74266565835759</v>
       </c>
       <c r="J35" t="n">
-        <v>33.12795564134782</v>
+        <v>33.12795564134777</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25196,13 +25196,13 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>34.10292514811664</v>
+        <v>34.10292514811658</v>
       </c>
       <c r="R35" t="n">
-        <v>106.1093940515596</v>
+        <v>42.56545686717453</v>
       </c>
       <c r="S35" t="n">
-        <v>169.3060206579884</v>
+        <v>169.3060206579883</v>
       </c>
       <c r="T35" t="n">
         <v>215.4667437305189</v>
@@ -25220,7 +25220,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>330.9853392080976</v>
+        <v>330.9853392080971</v>
       </c>
     </row>
     <row r="36">
@@ -25236,7 +25236,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>83.90112838025377</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -25245,16 +25245,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>80.44153722622073</v>
+        <v>136.4110370982271</v>
       </c>
       <c r="H36" t="n">
-        <v>103.2296499246818</v>
+        <v>47.26015005267554</v>
       </c>
       <c r="I36" t="n">
-        <v>3.873317771225814</v>
+        <v>67.41725495561087</v>
       </c>
       <c r="J36" t="n">
-        <v>38.73870964995511</v>
+        <v>38.73870964995508</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25275,10 +25275,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>20.95151175584309</v>
+        <v>20.95151175584304</v>
       </c>
       <c r="R36" t="n">
-        <v>87.78394343805664</v>
+        <v>87.78394343805661</v>
       </c>
       <c r="S36" t="n">
         <v>154.3627628792534</v>
@@ -25287,13 +25287,13 @@
         <v>196.4061796609626</v>
       </c>
       <c r="U36" t="n">
-        <v>162.3360975238935</v>
+        <v>225.8800347082785</v>
       </c>
       <c r="V36" t="n">
-        <v>169.2566499650402</v>
+        <v>169.2566499650403</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>188.1510459765346</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -25333,28 +25333,28 @@
         <v>131.9408207838627</v>
       </c>
       <c r="J37" t="n">
-        <v>71.72499209441816</v>
+        <v>71.72499209441814</v>
       </c>
       <c r="K37" t="n">
-        <v>38.18696435173403</v>
+        <v>38.18696435173401</v>
       </c>
       <c r="L37" t="n">
-        <v>18.65829059167039</v>
+        <v>18.65829059167034</v>
       </c>
       <c r="M37" t="n">
-        <v>16.38135637971838</v>
+        <v>16.38135637971834</v>
       </c>
       <c r="N37" t="n">
-        <v>8.054949484647565</v>
+        <v>8.054949484647508</v>
       </c>
       <c r="O37" t="n">
-        <v>27.95832121438394</v>
+        <v>27.9583212143839</v>
       </c>
       <c r="P37" t="n">
-        <v>43.17769004560044</v>
+        <v>43.17769004560041</v>
       </c>
       <c r="Q37" t="n">
-        <v>86.04326513766341</v>
+        <v>86.0432651376634</v>
       </c>
       <c r="R37" t="n">
         <v>142.1426207020684</v>
@@ -25388,16 +25388,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>319.1899044790957</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>343.1482479643988</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>318.3864328878768</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -25406,13 +25406,13 @@
         <v>413.5599377815856</v>
       </c>
       <c r="H38" t="n">
-        <v>266.3737548965981</v>
+        <v>321.6263543445543</v>
       </c>
       <c r="I38" t="n">
         <v>143.2866028427426</v>
       </c>
       <c r="J38" t="n">
-        <v>33.12795564134782</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25433,13 +25433,13 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>34.10292514811664</v>
+        <v>34.10292514811658</v>
       </c>
       <c r="R38" t="n">
-        <v>106.1093940515596</v>
+        <v>42.56545686717453</v>
       </c>
       <c r="S38" t="n">
-        <v>169.3060206579884</v>
+        <v>169.3060206579883</v>
       </c>
       <c r="T38" t="n">
         <v>215.4667437305189</v>
@@ -25448,16 +25448,16 @@
         <v>251.2062289291525</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>264.2083212857499</v>
       </c>
       <c r="W38" t="n">
-        <v>285.6970315330282</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>322.6940014716687</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25488,10 +25488,10 @@
         <v>103.2296499246818</v>
       </c>
       <c r="I39" t="n">
-        <v>67.41725495561089</v>
+        <v>67.41725495561087</v>
       </c>
       <c r="J39" t="n">
-        <v>38.73870964995511</v>
+        <v>38.73870964995508</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25512,31 +25512,31 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>20.95151175584309</v>
+        <v>20.95151175584304</v>
       </c>
       <c r="R39" t="n">
-        <v>87.78394343805664</v>
+        <v>87.78394343805661</v>
       </c>
       <c r="S39" t="n">
-        <v>154.3627628792534</v>
+        <v>90.81882569486839</v>
       </c>
       <c r="T39" t="n">
-        <v>196.4061796609626</v>
+        <v>132.8622424765776</v>
       </c>
       <c r="U39" t="n">
-        <v>225.8800347082785</v>
+        <v>162.3360975238936</v>
       </c>
       <c r="V39" t="n">
-        <v>169.2566499650404</v>
+        <v>176.831087277419</v>
       </c>
       <c r="W39" t="n">
-        <v>188.1510459765347</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>142.2290480190926</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>149.7131959052982</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25570,28 +25570,28 @@
         <v>131.9408207838627</v>
       </c>
       <c r="J40" t="n">
-        <v>71.72499209441816</v>
+        <v>71.72499209441814</v>
       </c>
       <c r="K40" t="n">
-        <v>38.18696435173403</v>
+        <v>38.18696435173401</v>
       </c>
       <c r="L40" t="n">
-        <v>18.65829059167039</v>
+        <v>18.65829059167034</v>
       </c>
       <c r="M40" t="n">
-        <v>16.38135637971838</v>
+        <v>16.38135637971834</v>
       </c>
       <c r="N40" t="n">
-        <v>8.054949484647565</v>
+        <v>8.054949484647508</v>
       </c>
       <c r="O40" t="n">
-        <v>27.95832121438394</v>
+        <v>27.9583212143839</v>
       </c>
       <c r="P40" t="n">
-        <v>43.17769004560044</v>
+        <v>43.17769004560041</v>
       </c>
       <c r="Q40" t="n">
-        <v>86.04326513766341</v>
+        <v>86.0432651376634</v>
       </c>
       <c r="R40" t="n">
         <v>142.1426207020684</v>
@@ -25628,7 +25628,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>310.0202923230514</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25646,10 +25646,10 @@
         <v>321.6263543445543</v>
       </c>
       <c r="I41" t="n">
-        <v>79.74266565835777</v>
+        <v>143.2866028427426</v>
       </c>
       <c r="J41" t="n">
-        <v>33.12795564134782</v>
+        <v>33.12795564134777</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25670,25 +25670,25 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>34.10292514811664</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>106.1093940515596</v>
+        <v>42.56545686717453</v>
       </c>
       <c r="S41" t="n">
-        <v>169.3060206579884</v>
+        <v>105.7620834736034</v>
       </c>
       <c r="T41" t="n">
-        <v>151.922806546134</v>
+        <v>215.4667437305189</v>
       </c>
       <c r="U41" t="n">
         <v>251.2062289291525</v>
       </c>
       <c r="V41" t="n">
-        <v>264.20832128575</v>
+        <v>306.602584170295</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>285.6970315330281</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25704,7 +25704,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>110.563683777861</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -25725,10 +25725,10 @@
         <v>103.2296499246818</v>
       </c>
       <c r="I42" t="n">
-        <v>3.873317771226013</v>
+        <v>67.41725495561087</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>38.73870964995508</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25749,19 +25749,19 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>3.720721533792016</v>
+        <v>20.95151175584304</v>
       </c>
       <c r="R42" t="n">
-        <v>24.24000625367177</v>
+        <v>87.78394343805661</v>
       </c>
       <c r="S42" t="n">
-        <v>90.81882569486851</v>
+        <v>154.3627628792534</v>
       </c>
       <c r="T42" t="n">
         <v>196.4061796609626</v>
       </c>
       <c r="U42" t="n">
-        <v>225.8800347082785</v>
+        <v>162.3360975238936</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -25770,10 +25770,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>142.2290480190925</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>142.1387585929194</v>
       </c>
     </row>
     <row r="43">
@@ -25807,28 +25807,28 @@
         <v>131.9408207838627</v>
       </c>
       <c r="J43" t="n">
-        <v>71.72499209441816</v>
+        <v>71.72499209441814</v>
       </c>
       <c r="K43" t="n">
-        <v>38.18696435173403</v>
+        <v>38.18696435173401</v>
       </c>
       <c r="L43" t="n">
-        <v>18.65829059167039</v>
+        <v>18.65829059167034</v>
       </c>
       <c r="M43" t="n">
-        <v>16.38135637971838</v>
+        <v>16.38135637971834</v>
       </c>
       <c r="N43" t="n">
-        <v>8.054949484647565</v>
+        <v>8.054949484647508</v>
       </c>
       <c r="O43" t="n">
-        <v>27.95832121438394</v>
+        <v>27.9583212143839</v>
       </c>
       <c r="P43" t="n">
-        <v>43.17769004560044</v>
+        <v>43.17769004560041</v>
       </c>
       <c r="Q43" t="n">
-        <v>86.04326513766341</v>
+        <v>86.0432651376634</v>
       </c>
       <c r="R43" t="n">
         <v>142.1426207020684</v>
@@ -25868,7 +25868,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>303.2693177382467</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25886,7 +25886,7 @@
         <v>143.2866028427426</v>
       </c>
       <c r="J44" t="n">
-        <v>33.12795564134782</v>
+        <v>33.12795564134777</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25907,28 +25907,28 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>34.10292514811664</v>
+        <v>34.10292514811658</v>
       </c>
       <c r="R44" t="n">
-        <v>106.1093940515596</v>
+        <v>106.1093940515595</v>
       </c>
       <c r="S44" t="n">
-        <v>169.3060206579884</v>
+        <v>169.3060206579883</v>
       </c>
       <c r="T44" t="n">
         <v>215.4667437305189</v>
       </c>
       <c r="U44" t="n">
-        <v>205.9210209335027</v>
+        <v>199.7925050467161</v>
       </c>
       <c r="V44" t="n">
-        <v>276.3385345876986</v>
+        <v>276.3385345876985</v>
       </c>
       <c r="W44" t="n">
-        <v>297.8272448349767</v>
+        <v>303.9557607217631</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>318.3173767960326</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -25947,7 +25947,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>96.03134168220238</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -25962,10 +25962,10 @@
         <v>103.2296499246818</v>
       </c>
       <c r="I45" t="n">
-        <v>67.41725495561089</v>
+        <v>67.41725495561087</v>
       </c>
       <c r="J45" t="n">
-        <v>38.73870964995511</v>
+        <v>38.73870964995508</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25986,31 +25986,31 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>20.95151175584309</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>87.78394343805664</v>
+        <v>63.45024719824968</v>
       </c>
       <c r="S45" t="n">
-        <v>102.9490389968171</v>
+        <v>154.3627628792534</v>
       </c>
       <c r="T45" t="n">
         <v>196.4061796609626</v>
       </c>
       <c r="U45" t="n">
-        <v>174.4663108258423</v>
+        <v>174.4663108258422</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>181.3868632669889</v>
       </c>
       <c r="W45" t="n">
-        <v>200.2812592784833</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>160.3974877816545</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26044,28 +26044,28 @@
         <v>131.9408207838627</v>
       </c>
       <c r="J46" t="n">
-        <v>71.72499209441816</v>
+        <v>71.72499209441814</v>
       </c>
       <c r="K46" t="n">
-        <v>38.18696435173403</v>
+        <v>38.18696435173401</v>
       </c>
       <c r="L46" t="n">
-        <v>18.65829059167039</v>
+        <v>18.65829059167034</v>
       </c>
       <c r="M46" t="n">
-        <v>16.38135637971838</v>
+        <v>16.38135637971834</v>
       </c>
       <c r="N46" t="n">
-        <v>8.054949484647565</v>
+        <v>8.054949484647508</v>
       </c>
       <c r="O46" t="n">
-        <v>27.95832121438394</v>
+        <v>27.9583212143839</v>
       </c>
       <c r="P46" t="n">
-        <v>43.17769004560044</v>
+        <v>43.17769004560041</v>
       </c>
       <c r="Q46" t="n">
-        <v>86.04326513766341</v>
+        <v>86.0432651376634</v>
       </c>
       <c r="R46" t="n">
         <v>142.1426207020684</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>338337.5450708359</v>
+        <v>338337.5450708361</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>338337.5450708359</v>
+        <v>338337.5450708361</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>343490.0428631144</v>
+        <v>343490.0428631143</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>345381.417101888</v>
+        <v>345381.4171018882</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>345381.417101888</v>
+        <v>345381.4171018881</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>345381.417101888</v>
+        <v>345381.4171018881</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>338337.5450708359</v>
+        <v>338337.5450708361</v>
       </c>
     </row>
     <row r="16">
@@ -26314,7 +26314,7 @@
         <v>82294.53236373072</v>
       </c>
       <c r="C2" t="n">
-        <v>82294.53236373073</v>
+        <v>82294.53236373072</v>
       </c>
       <c r="D2" t="n">
         <v>82320.58665415786</v>
@@ -26329,28 +26329,28 @@
         <v>108523.3635132869</v>
       </c>
       <c r="H2" t="n">
-        <v>110176.051484395</v>
+        <v>110176.0514843951</v>
       </c>
       <c r="I2" t="n">
-        <v>110782.7186930583</v>
+        <v>110782.7186930584</v>
       </c>
       <c r="J2" t="n">
-        <v>110782.7186930583</v>
+        <v>110782.7186930584</v>
       </c>
       <c r="K2" t="n">
-        <v>110782.7186930583</v>
+        <v>110782.7186930584</v>
       </c>
       <c r="L2" t="n">
-        <v>110782.7186930583</v>
+        <v>110782.7186930584</v>
       </c>
       <c r="M2" t="n">
-        <v>108523.3635132869</v>
+        <v>108523.363513287</v>
       </c>
       <c r="N2" t="n">
-        <v>108523.3635132869</v>
+        <v>108523.363513287</v>
       </c>
       <c r="O2" t="n">
-        <v>108523.3635132869</v>
+        <v>108523.363513287</v>
       </c>
       <c r="P2" t="n">
         <v>106106.7810417254</v>
@@ -26372,19 +26372,19 @@
         <v>117.1538387574727</v>
       </c>
       <c r="E3" t="n">
-        <v>105100.1989314226</v>
+        <v>105100.1989314228</v>
       </c>
       <c r="F3" t="n">
-        <v>5.779910849280893e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>3272.840720785449</v>
+        <v>3272.840720785453</v>
       </c>
       <c r="I3" t="n">
-        <v>1564.918326334827</v>
+        <v>1564.918326334823</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>11345.96518289274</v>
+        <v>11345.96518289286</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>45.9569861036352</v>
+        <v>45.95698610363529</v>
       </c>
       <c r="F4" t="n">
-        <v>45.9569861036352</v>
+        <v>45.95698610363529</v>
       </c>
       <c r="G4" t="n">
-        <v>45.95698610363521</v>
+        <v>45.95698610363529</v>
       </c>
       <c r="H4" t="n">
-        <v>51.90843633179244</v>
+        <v>51.90843633179256</v>
       </c>
       <c r="I4" t="n">
-        <v>54.09308930956762</v>
+        <v>54.09308930956772</v>
       </c>
       <c r="J4" t="n">
-        <v>54.09308930956762</v>
+        <v>54.09308930956772</v>
       </c>
       <c r="K4" t="n">
-        <v>54.09308930956762</v>
+        <v>54.09308930956772</v>
       </c>
       <c r="L4" t="n">
-        <v>54.09308930956762</v>
+        <v>54.09308930956772</v>
       </c>
       <c r="M4" t="n">
-        <v>45.9569861036353</v>
+        <v>45.95698610363531</v>
       </c>
       <c r="N4" t="n">
-        <v>45.9569861036352</v>
+        <v>45.95698610363531</v>
       </c>
       <c r="O4" t="n">
-        <v>45.9569861036352</v>
+        <v>45.95698610363531</v>
       </c>
       <c r="P4" t="n">
-        <v>37.25469592353989</v>
+        <v>37.25469592353996</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26476,40 @@
         <v>40741.33736580378</v>
       </c>
       <c r="E5" t="n">
-        <v>13314.23863591561</v>
+        <v>13314.23863591562</v>
       </c>
       <c r="F5" t="n">
-        <v>13314.23863591561</v>
+        <v>13314.23863591562</v>
       </c>
       <c r="G5" t="n">
-        <v>13314.23863591561</v>
+        <v>13314.23863591562</v>
       </c>
       <c r="H5" t="n">
-        <v>14051.75560467409</v>
+        <v>14051.7556046741</v>
       </c>
       <c r="I5" t="n">
-        <v>14409.55748659074</v>
+        <v>14409.55748659075</v>
       </c>
       <c r="J5" t="n">
-        <v>14409.55748659074</v>
+        <v>14409.55748659075</v>
       </c>
       <c r="K5" t="n">
-        <v>14409.55748659074</v>
+        <v>14409.55748659075</v>
       </c>
       <c r="L5" t="n">
-        <v>14409.55748659074</v>
+        <v>14409.55748659075</v>
       </c>
       <c r="M5" t="n">
         <v>13314.23863591562</v>
       </c>
       <c r="N5" t="n">
-        <v>13314.23863591561</v>
+        <v>13314.23863591562</v>
       </c>
       <c r="O5" t="n">
-        <v>13314.23863591561</v>
+        <v>13314.23863591562</v>
       </c>
       <c r="P5" t="n">
-        <v>12576.72166715714</v>
+        <v>12576.72166715715</v>
       </c>
     </row>
     <row r="6">
@@ -26522,43 +26522,43 @@
         <v>-272756.4910764367</v>
       </c>
       <c r="C6" t="n">
-        <v>41556.17714637958</v>
+        <v>41556.17714637957</v>
       </c>
       <c r="D6" t="n">
         <v>41462.09544959661</v>
       </c>
       <c r="E6" t="n">
-        <v>-9937.03104015499</v>
+        <v>-9937.031040155147</v>
       </c>
       <c r="F6" t="n">
-        <v>95163.16789126759</v>
+        <v>95163.16789126769</v>
       </c>
       <c r="G6" t="n">
-        <v>95163.16789126764</v>
+        <v>95163.16789126766</v>
       </c>
       <c r="H6" t="n">
-        <v>92799.54672260367</v>
+        <v>92799.54672260374</v>
       </c>
       <c r="I6" t="n">
-        <v>94754.1497908232</v>
+        <v>94754.14979082323</v>
       </c>
       <c r="J6" t="n">
-        <v>96319.06811715801</v>
+        <v>96319.06811715805</v>
       </c>
       <c r="K6" t="n">
-        <v>96319.06811715802</v>
+        <v>96319.06811715805</v>
       </c>
       <c r="L6" t="n">
-        <v>96319.06811715802</v>
+        <v>96319.06811715808</v>
       </c>
       <c r="M6" t="n">
-        <v>83817.20270837493</v>
+        <v>83817.20270837485</v>
       </c>
       <c r="N6" t="n">
-        <v>95163.16789126766</v>
+        <v>95163.16789126772</v>
       </c>
       <c r="O6" t="n">
-        <v>95163.16789126767</v>
+        <v>95163.16789126772</v>
       </c>
       <c r="P6" t="n">
         <v>93492.80467864469</v>
@@ -26744,40 +26744,40 @@
         <v>326.3182277891643</v>
       </c>
       <c r="E3" t="n">
-        <v>433.5214337204134</v>
+        <v>433.5214337204136</v>
       </c>
       <c r="F3" t="n">
-        <v>433.5214337204134</v>
+        <v>433.5214337204136</v>
       </c>
       <c r="G3" t="n">
-        <v>433.5214337204134</v>
+        <v>433.5214337204136</v>
       </c>
       <c r="H3" t="n">
-        <v>433.5214337204134</v>
+        <v>433.5214337204136</v>
       </c>
       <c r="I3" t="n">
-        <v>433.5214337204134</v>
+        <v>433.5214337204136</v>
       </c>
       <c r="J3" t="n">
-        <v>433.5214337204134</v>
+        <v>433.5214337204136</v>
       </c>
       <c r="K3" t="n">
-        <v>433.5214337204134</v>
+        <v>433.5214337204136</v>
       </c>
       <c r="L3" t="n">
-        <v>433.5214337204134</v>
+        <v>433.5214337204136</v>
       </c>
       <c r="M3" t="n">
-        <v>433.5214337204134</v>
+        <v>433.5214337204136</v>
       </c>
       <c r="N3" t="n">
-        <v>433.5214337204134</v>
+        <v>433.5214337204136</v>
       </c>
       <c r="O3" t="n">
-        <v>433.5214337204134</v>
+        <v>433.5214337204136</v>
       </c>
       <c r="P3" t="n">
-        <v>433.5214337204134</v>
+        <v>433.5214337204136</v>
       </c>
     </row>
     <row r="4">
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>63.54393718438487</v>
+        <v>63.54393718438497</v>
       </c>
       <c r="F4" t="n">
-        <v>63.54393718438487</v>
+        <v>63.54393718438497</v>
       </c>
       <c r="G4" t="n">
-        <v>63.54393718438487</v>
+        <v>63.54393718438497</v>
       </c>
       <c r="H4" t="n">
-        <v>75.67415048633345</v>
+        <v>75.67415048633357</v>
       </c>
       <c r="I4" t="n">
-        <v>81.55904985996256</v>
+        <v>81.55904985996267</v>
       </c>
       <c r="J4" t="n">
-        <v>81.55904985996256</v>
+        <v>81.55904985996267</v>
       </c>
       <c r="K4" t="n">
-        <v>81.55904985996256</v>
+        <v>81.55904985996267</v>
       </c>
       <c r="L4" t="n">
-        <v>81.55904985996256</v>
+        <v>81.55904985996267</v>
       </c>
       <c r="M4" t="n">
-        <v>63.54393718438507</v>
+        <v>63.54393718438499</v>
       </c>
       <c r="N4" t="n">
-        <v>63.54393718438487</v>
+        <v>63.54393718438499</v>
       </c>
       <c r="O4" t="n">
-        <v>63.54393718438487</v>
+        <v>63.54393718438499</v>
       </c>
       <c r="P4" t="n">
-        <v>51.41372388243628</v>
+        <v>51.41372388243637</v>
       </c>
     </row>
   </sheetData>
@@ -26966,7 +26966,7 @@
         <v>0.1367958005794776</v>
       </c>
       <c r="E3" t="n">
-        <v>107.2032059312492</v>
+        <v>107.2032059312493</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,19 +27018,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>63.54393718438487</v>
+        <v>63.54393718438497</v>
       </c>
       <c r="F4" t="n">
-        <v>2.017237824588656e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>12.1302133019486</v>
+        <v>12.13021330194861</v>
       </c>
       <c r="I4" t="n">
-        <v>5.884899373629111</v>
+        <v>5.884899373629096</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>45.52882450880701</v>
+        <v>45.52882450880747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,16 +27264,16 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>63.54393718438487</v>
+        <v>63.54393718438497</v>
       </c>
       <c r="N4" t="n">
-        <v>2.017237824588656e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>12.1302133019486</v>
+        <v>12.13021330194861</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.742799733549399</v>
+        <v>1.7427997335494</v>
       </c>
       <c r="H11" t="n">
-        <v>17.84844777121279</v>
+        <v>17.8484477712128</v>
       </c>
       <c r="I11" t="n">
-        <v>67.18928672766329</v>
+        <v>67.18928672766332</v>
       </c>
       <c r="J11" t="n">
         <v>147.9179488853385</v>
       </c>
       <c r="K11" t="n">
-        <v>221.6906616064846</v>
+        <v>221.6906616064847</v>
       </c>
       <c r="L11" t="n">
-        <v>275.0268689520971</v>
+        <v>275.0268689520972</v>
       </c>
       <c r="M11" t="n">
-        <v>293.8901704116576</v>
+        <v>293.8901704116577</v>
       </c>
       <c r="N11" t="n">
-        <v>292.9570007809758</v>
+        <v>292.9570007809759</v>
       </c>
       <c r="O11" t="n">
-        <v>293.6421486060716</v>
+        <v>293.6421486060717</v>
       </c>
       <c r="P11" t="n">
         <v>250.6167801840708</v>
       </c>
       <c r="Q11" t="n">
-        <v>188.2027647263328</v>
+        <v>188.2027647263329</v>
       </c>
       <c r="R11" t="n">
         <v>109.4761437625726</v>
       </c>
       <c r="S11" t="n">
-        <v>39.71404892825698</v>
+        <v>39.71404892825699</v>
       </c>
       <c r="T11" t="n">
-        <v>7.6291058336125</v>
+        <v>7.629105833612503</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1394239786839519</v>
+        <v>0.139423978683952</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9324800649835308</v>
+        <v>0.9324800649835312</v>
       </c>
       <c r="H12" t="n">
-        <v>9.005794311814627</v>
+        <v>9.005794311814631</v>
       </c>
       <c r="I12" t="n">
-        <v>32.10512504438911</v>
+        <v>32.10512504438913</v>
       </c>
       <c r="J12" t="n">
-        <v>88.09891701671158</v>
+        <v>88.09891701671161</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>150.5750813706082</v>
       </c>
       <c r="L12" t="n">
-        <v>202.0983169642591</v>
+        <v>142.7088560135203</v>
       </c>
       <c r="M12" t="n">
-        <v>205.6779711064032</v>
+        <v>205.6779711064033</v>
       </c>
       <c r="N12" t="n">
-        <v>194.8856492677182</v>
+        <v>194.8856492677183</v>
       </c>
       <c r="O12" t="n">
-        <v>159.4843630743397</v>
+        <v>206.1401816288294</v>
       </c>
       <c r="P12" t="n">
-        <v>178.0627941633902</v>
+        <v>178.0627941633903</v>
       </c>
       <c r="Q12" t="n">
-        <v>119.0302623301784</v>
+        <v>119.0302623301785</v>
       </c>
       <c r="R12" t="n">
-        <v>57.89556052590731</v>
+        <v>57.89556052590734</v>
       </c>
       <c r="S12" t="n">
-        <v>17.32040822458443</v>
+        <v>17.32040822458444</v>
       </c>
       <c r="T12" t="n">
-        <v>3.758549033859055</v>
+        <v>3.758549033859056</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06134737269628494</v>
+        <v>0.06134737269628497</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,19 +31908,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.781759962446647</v>
+        <v>0.7817599624466474</v>
       </c>
       <c r="H13" t="n">
-        <v>6.950556757025649</v>
+        <v>6.950556757025652</v>
       </c>
       <c r="I13" t="n">
-        <v>23.50965414339554</v>
+        <v>23.50965414339555</v>
       </c>
       <c r="J13" t="n">
-        <v>55.27042934497795</v>
+        <v>55.27042934497797</v>
       </c>
       <c r="K13" t="n">
-        <v>90.82629381880135</v>
+        <v>90.82629381880137</v>
       </c>
       <c r="L13" t="n">
         <v>116.2263856895679</v>
@@ -31929,28 +31929,28 @@
         <v>122.5444275678867</v>
       </c>
       <c r="N13" t="n">
-        <v>119.6305949805856</v>
+        <v>119.6305949805857</v>
       </c>
       <c r="O13" t="n">
-        <v>110.4982172374588</v>
+        <v>110.4982172374589</v>
       </c>
       <c r="P13" t="n">
-        <v>94.55031400354717</v>
+        <v>94.5503140035472</v>
       </c>
       <c r="Q13" t="n">
-        <v>65.46173649178243</v>
+        <v>65.46173649178245</v>
       </c>
       <c r="R13" t="n">
-        <v>35.15077067510105</v>
+        <v>35.15077067510106</v>
       </c>
       <c r="S13" t="n">
         <v>13.6239440728202</v>
       </c>
       <c r="T13" t="n">
-        <v>3.340247112272037</v>
+        <v>3.340247112272038</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04264145249708989</v>
+        <v>0.04264145249708991</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.742799733549399</v>
+        <v>1.7427997335494</v>
       </c>
       <c r="H14" t="n">
-        <v>17.84844777121279</v>
+        <v>17.8484477712128</v>
       </c>
       <c r="I14" t="n">
-        <v>67.18928672766329</v>
+        <v>67.18928672766332</v>
       </c>
       <c r="J14" t="n">
         <v>147.9179488853385</v>
       </c>
       <c r="K14" t="n">
-        <v>221.6906616064846</v>
+        <v>221.6906616064847</v>
       </c>
       <c r="L14" t="n">
-        <v>275.0268689520971</v>
+        <v>275.0268689520972</v>
       </c>
       <c r="M14" t="n">
-        <v>293.8901704116576</v>
+        <v>293.8901704116577</v>
       </c>
       <c r="N14" t="n">
-        <v>292.9570007809758</v>
+        <v>292.9570007809759</v>
       </c>
       <c r="O14" t="n">
-        <v>293.6421486060716</v>
+        <v>293.6421486060717</v>
       </c>
       <c r="P14" t="n">
         <v>250.6167801840708</v>
       </c>
       <c r="Q14" t="n">
-        <v>188.2027647263328</v>
+        <v>188.2027647263329</v>
       </c>
       <c r="R14" t="n">
         <v>109.4761437625726</v>
       </c>
       <c r="S14" t="n">
-        <v>39.71404892825698</v>
+        <v>39.71404892825699</v>
       </c>
       <c r="T14" t="n">
-        <v>7.6291058336125</v>
+        <v>7.629105833612503</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1394239786839519</v>
+        <v>0.139423978683952</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9324800649835308</v>
+        <v>0.9324800649835312</v>
       </c>
       <c r="H15" t="n">
-        <v>9.005794311814627</v>
+        <v>9.005794311814631</v>
       </c>
       <c r="I15" t="n">
-        <v>32.10512504438911</v>
+        <v>32.10512504438913</v>
       </c>
       <c r="J15" t="n">
-        <v>88.09891701671158</v>
+        <v>88.09891701671161</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>150.5750813706082</v>
       </c>
       <c r="L15" t="n">
         <v>202.0983169642591</v>
       </c>
       <c r="M15" t="n">
-        <v>159.0221525519135</v>
+        <v>205.6779711064033</v>
       </c>
       <c r="N15" t="n">
-        <v>194.8856492677182</v>
+        <v>194.8856492677183</v>
       </c>
       <c r="O15" t="n">
-        <v>206.1401816288293</v>
+        <v>146.7507206780905</v>
       </c>
       <c r="P15" t="n">
-        <v>178.0627941633902</v>
+        <v>178.0627941633903</v>
       </c>
       <c r="Q15" t="n">
-        <v>119.0302623301784</v>
+        <v>119.0302623301785</v>
       </c>
       <c r="R15" t="n">
-        <v>57.89556052590731</v>
+        <v>57.89556052590734</v>
       </c>
       <c r="S15" t="n">
-        <v>17.32040822458443</v>
+        <v>17.32040822458444</v>
       </c>
       <c r="T15" t="n">
-        <v>3.758549033859055</v>
+        <v>3.758549033859056</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06134737269628494</v>
+        <v>0.06134737269628497</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,19 +32145,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.781759962446647</v>
+        <v>0.7817599624466474</v>
       </c>
       <c r="H16" t="n">
-        <v>6.950556757025649</v>
+        <v>6.950556757025652</v>
       </c>
       <c r="I16" t="n">
-        <v>23.50965414339554</v>
+        <v>23.50965414339555</v>
       </c>
       <c r="J16" t="n">
-        <v>55.27042934497795</v>
+        <v>55.27042934497797</v>
       </c>
       <c r="K16" t="n">
-        <v>90.82629381880135</v>
+        <v>90.82629381880137</v>
       </c>
       <c r="L16" t="n">
         <v>116.2263856895679</v>
@@ -32166,28 +32166,28 @@
         <v>122.5444275678867</v>
       </c>
       <c r="N16" t="n">
-        <v>119.6305949805856</v>
+        <v>119.6305949805857</v>
       </c>
       <c r="O16" t="n">
-        <v>110.4982172374588</v>
+        <v>110.4982172374589</v>
       </c>
       <c r="P16" t="n">
-        <v>94.55031400354717</v>
+        <v>94.5503140035472</v>
       </c>
       <c r="Q16" t="n">
-        <v>65.46173649178243</v>
+        <v>65.46173649178245</v>
       </c>
       <c r="R16" t="n">
-        <v>35.15077067510105</v>
+        <v>35.15077067510106</v>
       </c>
       <c r="S16" t="n">
         <v>13.6239440728202</v>
       </c>
       <c r="T16" t="n">
-        <v>3.340247112272037</v>
+        <v>3.340247112272038</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04264145249708989</v>
+        <v>0.04264145249708991</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.742799733549399</v>
+        <v>1.7427997335494</v>
       </c>
       <c r="H17" t="n">
-        <v>17.84844777121279</v>
+        <v>17.8484477712128</v>
       </c>
       <c r="I17" t="n">
-        <v>67.18928672766329</v>
+        <v>67.18928672766332</v>
       </c>
       <c r="J17" t="n">
         <v>147.9179488853385</v>
       </c>
       <c r="K17" t="n">
-        <v>221.6906616064846</v>
+        <v>221.6906616064847</v>
       </c>
       <c r="L17" t="n">
-        <v>275.0268689520971</v>
+        <v>275.0268689520972</v>
       </c>
       <c r="M17" t="n">
-        <v>293.8901704116576</v>
+        <v>293.8901704116577</v>
       </c>
       <c r="N17" t="n">
-        <v>292.9570007809758</v>
+        <v>292.9570007809759</v>
       </c>
       <c r="O17" t="n">
-        <v>293.6421486060716</v>
+        <v>293.6421486060717</v>
       </c>
       <c r="P17" t="n">
         <v>250.6167801840708</v>
       </c>
       <c r="Q17" t="n">
-        <v>188.2027647263328</v>
+        <v>188.2027647263329</v>
       </c>
       <c r="R17" t="n">
         <v>109.4761437625726</v>
       </c>
       <c r="S17" t="n">
-        <v>39.71404892825698</v>
+        <v>39.71404892825699</v>
       </c>
       <c r="T17" t="n">
-        <v>7.6291058336125</v>
+        <v>7.629105833612503</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1394239786839519</v>
+        <v>0.139423978683952</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9324800649835308</v>
+        <v>0.9324800649835312</v>
       </c>
       <c r="H18" t="n">
-        <v>9.005794311814627</v>
+        <v>9.005794311814631</v>
       </c>
       <c r="I18" t="n">
-        <v>32.10512504438911</v>
+        <v>32.10512504438913</v>
       </c>
       <c r="J18" t="n">
-        <v>88.09891701671158</v>
+        <v>88.09891701671161</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>155.4424984097694</v>
+        <v>202.0983169642591</v>
       </c>
       <c r="M18" t="n">
-        <v>205.6779711064032</v>
+        <v>205.6779711064033</v>
       </c>
       <c r="N18" t="n">
-        <v>194.8856492677182</v>
+        <v>192.3182174622886</v>
       </c>
       <c r="O18" t="n">
-        <v>206.1401816288293</v>
+        <v>206.1401816288294</v>
       </c>
       <c r="P18" t="n">
-        <v>178.0627941633902</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>119.0302623301784</v>
+        <v>119.0302623301785</v>
       </c>
       <c r="R18" t="n">
-        <v>57.89556052590731</v>
+        <v>57.89556052590734</v>
       </c>
       <c r="S18" t="n">
-        <v>17.32040822458443</v>
+        <v>17.32040822458444</v>
       </c>
       <c r="T18" t="n">
-        <v>3.758549033859055</v>
+        <v>3.758549033859056</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06134737269628494</v>
+        <v>0.06134737269628497</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,19 +32382,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.781759962446647</v>
+        <v>0.7817599624466474</v>
       </c>
       <c r="H19" t="n">
-        <v>6.950556757025649</v>
+        <v>6.950556757025652</v>
       </c>
       <c r="I19" t="n">
-        <v>23.50965414339554</v>
+        <v>23.50965414339555</v>
       </c>
       <c r="J19" t="n">
-        <v>55.27042934497795</v>
+        <v>55.27042934497797</v>
       </c>
       <c r="K19" t="n">
-        <v>90.82629381880135</v>
+        <v>90.82629381880137</v>
       </c>
       <c r="L19" t="n">
         <v>116.2263856895679</v>
@@ -32403,28 +32403,28 @@
         <v>122.5444275678867</v>
       </c>
       <c r="N19" t="n">
-        <v>119.6305949805856</v>
+        <v>119.6305949805857</v>
       </c>
       <c r="O19" t="n">
-        <v>110.4982172374588</v>
+        <v>110.4982172374589</v>
       </c>
       <c r="P19" t="n">
-        <v>94.55031400354717</v>
+        <v>94.5503140035472</v>
       </c>
       <c r="Q19" t="n">
-        <v>65.46173649178243</v>
+        <v>65.46173649178245</v>
       </c>
       <c r="R19" t="n">
-        <v>35.15077067510105</v>
+        <v>35.15077067510106</v>
       </c>
       <c r="S19" t="n">
         <v>13.6239440728202</v>
       </c>
       <c r="T19" t="n">
-        <v>3.340247112272037</v>
+        <v>3.340247112272038</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04264145249708989</v>
+        <v>0.04264145249708991</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.742799733549399</v>
+        <v>1.7427997335494</v>
       </c>
       <c r="H20" t="n">
-        <v>17.84844777121279</v>
+        <v>17.8484477712128</v>
       </c>
       <c r="I20" t="n">
-        <v>67.18928672766329</v>
+        <v>67.18928672766332</v>
       </c>
       <c r="J20" t="n">
         <v>147.9179488853385</v>
       </c>
       <c r="K20" t="n">
-        <v>221.6906616064846</v>
+        <v>221.6906616064847</v>
       </c>
       <c r="L20" t="n">
-        <v>275.0268689520971</v>
+        <v>275.0268689520972</v>
       </c>
       <c r="M20" t="n">
-        <v>306.0203837136062</v>
+        <v>306.0203837136063</v>
       </c>
       <c r="N20" t="n">
-        <v>305.0872140829243</v>
+        <v>305.0872140829245</v>
       </c>
       <c r="O20" t="n">
-        <v>293.6421486060716</v>
+        <v>293.6421486060717</v>
       </c>
       <c r="P20" t="n">
         <v>250.6167801840708</v>
       </c>
       <c r="Q20" t="n">
-        <v>188.2027647263328</v>
+        <v>188.2027647263329</v>
       </c>
       <c r="R20" t="n">
         <v>109.4761437625726</v>
       </c>
       <c r="S20" t="n">
-        <v>39.71404892825698</v>
+        <v>39.71404892825699</v>
       </c>
       <c r="T20" t="n">
-        <v>7.6291058336125</v>
+        <v>7.629105833612503</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1394239786839519</v>
+        <v>0.139423978683952</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9324800649835308</v>
+        <v>0.9324800649835312</v>
       </c>
       <c r="H21" t="n">
-        <v>9.005794311814627</v>
+        <v>9.005794311814631</v>
       </c>
       <c r="I21" t="n">
-        <v>32.10512504438911</v>
+        <v>32.10512504438913</v>
       </c>
       <c r="J21" t="n">
-        <v>88.09891701671158</v>
+        <v>88.09891701671161</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5750813706081</v>
+        <v>150.5750813706082</v>
       </c>
       <c r="L21" t="n">
-        <v>202.4667790219723</v>
+        <v>202.4667790219724</v>
       </c>
       <c r="M21" t="n">
-        <v>217.8081844083518</v>
+        <v>217.8081844083519</v>
       </c>
       <c r="N21" t="n">
-        <v>207.0158625696668</v>
+        <v>207.0158625696669</v>
       </c>
       <c r="O21" t="n">
-        <v>170.1525755959128</v>
+        <v>170.1525755959129</v>
       </c>
       <c r="P21" t="n">
-        <v>178.0627941633902</v>
+        <v>178.0627941633903</v>
       </c>
       <c r="Q21" t="n">
-        <v>119.0302623301784</v>
+        <v>119.0302623301785</v>
       </c>
       <c r="R21" t="n">
-        <v>57.89556052590731</v>
+        <v>57.89556052590734</v>
       </c>
       <c r="S21" t="n">
-        <v>17.32040822458443</v>
+        <v>17.32040822458444</v>
       </c>
       <c r="T21" t="n">
-        <v>3.758549033859055</v>
+        <v>3.758549033859056</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06134737269628494</v>
+        <v>0.06134737269628497</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,19 +32619,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.781759962446647</v>
+        <v>0.7817599624466474</v>
       </c>
       <c r="H22" t="n">
-        <v>6.950556757025649</v>
+        <v>6.950556757025652</v>
       </c>
       <c r="I22" t="n">
-        <v>23.50965414339554</v>
+        <v>23.50965414339555</v>
       </c>
       <c r="J22" t="n">
-        <v>55.27042934497795</v>
+        <v>55.27042934497797</v>
       </c>
       <c r="K22" t="n">
-        <v>90.82629381880135</v>
+        <v>90.82629381880137</v>
       </c>
       <c r="L22" t="n">
         <v>116.2263856895679</v>
@@ -32640,28 +32640,28 @@
         <v>122.5444275678867</v>
       </c>
       <c r="N22" t="n">
-        <v>119.6305949805856</v>
+        <v>119.6305949805857</v>
       </c>
       <c r="O22" t="n">
-        <v>110.4982172374588</v>
+        <v>110.4982172374589</v>
       </c>
       <c r="P22" t="n">
-        <v>94.55031400354717</v>
+        <v>94.5503140035472</v>
       </c>
       <c r="Q22" t="n">
-        <v>65.46173649178243</v>
+        <v>65.46173649178245</v>
       </c>
       <c r="R22" t="n">
-        <v>35.15077067510105</v>
+        <v>35.15077067510106</v>
       </c>
       <c r="S22" t="n">
         <v>13.6239440728202</v>
       </c>
       <c r="T22" t="n">
-        <v>3.340247112272037</v>
+        <v>3.340247112272038</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04264145249708989</v>
+        <v>0.04264145249708991</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.742799733549399</v>
+        <v>1.7427997335494</v>
       </c>
       <c r="H23" t="n">
-        <v>17.84844777121279</v>
+        <v>17.8484477712128</v>
       </c>
       <c r="I23" t="n">
-        <v>67.18928672766329</v>
+        <v>67.18928672766332</v>
       </c>
       <c r="J23" t="n">
         <v>147.9179488853385</v>
       </c>
       <c r="K23" t="n">
-        <v>221.6906616064846</v>
+        <v>221.6906616064847</v>
       </c>
       <c r="L23" t="n">
-        <v>275.0268689520971</v>
+        <v>275.0268689520972</v>
       </c>
       <c r="M23" t="n">
-        <v>306.0203837136062</v>
+        <v>306.0203837136063</v>
       </c>
       <c r="N23" t="n">
-        <v>310.9721134565535</v>
+        <v>310.9721134565536</v>
       </c>
       <c r="O23" t="n">
-        <v>293.6421486060716</v>
+        <v>293.6421486060717</v>
       </c>
       <c r="P23" t="n">
         <v>250.6167801840708</v>
       </c>
       <c r="Q23" t="n">
-        <v>188.2027647263328</v>
+        <v>188.2027647263329</v>
       </c>
       <c r="R23" t="n">
         <v>109.4761437625726</v>
       </c>
       <c r="S23" t="n">
-        <v>39.71404892825698</v>
+        <v>39.71404892825699</v>
       </c>
       <c r="T23" t="n">
-        <v>7.6291058336125</v>
+        <v>7.629105833612503</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1394239786839519</v>
+        <v>0.139423978683952</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9324800649835308</v>
+        <v>0.9324800649835312</v>
       </c>
       <c r="H24" t="n">
-        <v>9.005794311814627</v>
+        <v>9.005794311814631</v>
       </c>
       <c r="I24" t="n">
-        <v>32.10512504438911</v>
+        <v>32.10512504438913</v>
       </c>
       <c r="J24" t="n">
-        <v>88.09891701671158</v>
+        <v>88.09891701671161</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>150.5750813706082</v>
       </c>
       <c r="L24" t="n">
-        <v>202.4667790219723</v>
+        <v>202.4667790219724</v>
       </c>
       <c r="M24" t="n">
-        <v>223.6930837819809</v>
+        <v>223.693083781981</v>
       </c>
       <c r="N24" t="n">
-        <v>212.9007619432959</v>
+        <v>172.7246341307099</v>
       </c>
       <c r="O24" t="n">
-        <v>194.4182430273544</v>
+        <v>221.8607284436913</v>
       </c>
       <c r="P24" t="n">
-        <v>178.0627941633902</v>
+        <v>178.0627941633903</v>
       </c>
       <c r="Q24" t="n">
-        <v>119.0302623301784</v>
+        <v>119.0302623301785</v>
       </c>
       <c r="R24" t="n">
-        <v>57.89556052590731</v>
+        <v>57.89556052590734</v>
       </c>
       <c r="S24" t="n">
-        <v>17.32040822458443</v>
+        <v>17.32040822458444</v>
       </c>
       <c r="T24" t="n">
-        <v>3.758549033859055</v>
+        <v>3.758549033859056</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06134737269628494</v>
+        <v>0.06134737269628497</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,19 +32856,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.781759962446647</v>
+        <v>0.7817599624466474</v>
       </c>
       <c r="H25" t="n">
-        <v>6.950556757025649</v>
+        <v>6.950556757025652</v>
       </c>
       <c r="I25" t="n">
-        <v>23.50965414339554</v>
+        <v>23.50965414339555</v>
       </c>
       <c r="J25" t="n">
-        <v>55.27042934497795</v>
+        <v>55.27042934497797</v>
       </c>
       <c r="K25" t="n">
-        <v>90.82629381880135</v>
+        <v>90.82629381880137</v>
       </c>
       <c r="L25" t="n">
         <v>116.2263856895679</v>
@@ -32877,28 +32877,28 @@
         <v>122.5444275678867</v>
       </c>
       <c r="N25" t="n">
-        <v>119.6305949805856</v>
+        <v>119.6305949805857</v>
       </c>
       <c r="O25" t="n">
-        <v>110.4982172374588</v>
+        <v>110.4982172374589</v>
       </c>
       <c r="P25" t="n">
-        <v>94.55031400354717</v>
+        <v>94.5503140035472</v>
       </c>
       <c r="Q25" t="n">
-        <v>65.46173649178243</v>
+        <v>65.46173649178245</v>
       </c>
       <c r="R25" t="n">
-        <v>35.15077067510105</v>
+        <v>35.15077067510106</v>
       </c>
       <c r="S25" t="n">
         <v>13.6239440728202</v>
       </c>
       <c r="T25" t="n">
-        <v>3.340247112272037</v>
+        <v>3.340247112272038</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04264145249708989</v>
+        <v>0.04264145249708991</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.742799733549399</v>
+        <v>1.7427997335494</v>
       </c>
       <c r="H26" t="n">
-        <v>17.84844777121279</v>
+        <v>17.8484477712128</v>
       </c>
       <c r="I26" t="n">
-        <v>67.18928672766329</v>
+        <v>67.18928672766332</v>
       </c>
       <c r="J26" t="n">
         <v>147.9179488853385</v>
       </c>
       <c r="K26" t="n">
-        <v>221.6906616064846</v>
+        <v>221.6906616064847</v>
       </c>
       <c r="L26" t="n">
-        <v>275.0268689520971</v>
+        <v>275.0268689520972</v>
       </c>
       <c r="M26" t="n">
-        <v>306.0203837136062</v>
+        <v>306.0203837136063</v>
       </c>
       <c r="N26" t="n">
-        <v>310.9721134565535</v>
+        <v>310.9721134565536</v>
       </c>
       <c r="O26" t="n">
-        <v>293.6421486060716</v>
+        <v>293.6421486060717</v>
       </c>
       <c r="P26" t="n">
         <v>250.6167801840708</v>
       </c>
       <c r="Q26" t="n">
-        <v>188.2027647263328</v>
+        <v>188.2027647263329</v>
       </c>
       <c r="R26" t="n">
         <v>109.4761437625726</v>
       </c>
       <c r="S26" t="n">
-        <v>39.71404892825698</v>
+        <v>39.71404892825699</v>
       </c>
       <c r="T26" t="n">
-        <v>7.6291058336125</v>
+        <v>7.629105833612503</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1394239786839519</v>
+        <v>0.139423978683952</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9324800649835308</v>
+        <v>0.9324800649835312</v>
       </c>
       <c r="H27" t="n">
-        <v>9.005794311814627</v>
+        <v>9.005794311814631</v>
       </c>
       <c r="I27" t="n">
-        <v>32.10512504438911</v>
+        <v>32.10512504438913</v>
       </c>
       <c r="J27" t="n">
-        <v>88.09891701671158</v>
+        <v>88.09891701671161</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5750813706081</v>
+        <v>150.5750813706082</v>
       </c>
       <c r="L27" t="n">
-        <v>202.4667790219723</v>
+        <v>202.4667790219724</v>
       </c>
       <c r="M27" t="n">
-        <v>223.6930837819809</v>
+        <v>223.693083781981</v>
       </c>
       <c r="N27" t="n">
-        <v>212.9007619432959</v>
+        <v>172.7246341307099</v>
       </c>
       <c r="O27" t="n">
-        <v>181.6846006311052</v>
+        <v>221.8607284436913</v>
       </c>
       <c r="P27" t="n">
-        <v>178.0627941633902</v>
+        <v>178.0627941633903</v>
       </c>
       <c r="Q27" t="n">
-        <v>119.0302623301784</v>
+        <v>119.0302623301785</v>
       </c>
       <c r="R27" t="n">
-        <v>57.89556052590731</v>
+        <v>57.89556052590734</v>
       </c>
       <c r="S27" t="n">
-        <v>17.32040822458443</v>
+        <v>17.32040822458444</v>
       </c>
       <c r="T27" t="n">
-        <v>3.758549033859055</v>
+        <v>3.758549033859056</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06134737269628494</v>
+        <v>0.06134737269628497</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,19 +33093,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.781759962446647</v>
+        <v>0.7817599624466474</v>
       </c>
       <c r="H28" t="n">
-        <v>6.950556757025649</v>
+        <v>6.950556757025652</v>
       </c>
       <c r="I28" t="n">
-        <v>23.50965414339554</v>
+        <v>23.50965414339555</v>
       </c>
       <c r="J28" t="n">
-        <v>55.27042934497795</v>
+        <v>55.27042934497797</v>
       </c>
       <c r="K28" t="n">
-        <v>90.82629381880135</v>
+        <v>90.82629381880137</v>
       </c>
       <c r="L28" t="n">
         <v>116.2263856895679</v>
@@ -33114,28 +33114,28 @@
         <v>122.5444275678867</v>
       </c>
       <c r="N28" t="n">
-        <v>119.6305949805856</v>
+        <v>119.6305949805857</v>
       </c>
       <c r="O28" t="n">
-        <v>110.4982172374588</v>
+        <v>110.4982172374589</v>
       </c>
       <c r="P28" t="n">
-        <v>94.55031400354717</v>
+        <v>94.5503140035472</v>
       </c>
       <c r="Q28" t="n">
-        <v>65.46173649178243</v>
+        <v>65.46173649178245</v>
       </c>
       <c r="R28" t="n">
-        <v>35.15077067510105</v>
+        <v>35.15077067510106</v>
       </c>
       <c r="S28" t="n">
         <v>13.6239440728202</v>
       </c>
       <c r="T28" t="n">
-        <v>3.340247112272037</v>
+        <v>3.340247112272038</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04264145249708989</v>
+        <v>0.04264145249708991</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.742799733549399</v>
+        <v>1.7427997335494</v>
       </c>
       <c r="H29" t="n">
-        <v>17.84844777121279</v>
+        <v>17.8484477712128</v>
       </c>
       <c r="I29" t="n">
-        <v>67.18928672766329</v>
+        <v>67.18928672766332</v>
       </c>
       <c r="J29" t="n">
         <v>147.9179488853385</v>
       </c>
       <c r="K29" t="n">
-        <v>221.6906616064846</v>
+        <v>221.6906616064847</v>
       </c>
       <c r="L29" t="n">
-        <v>275.0268689520971</v>
+        <v>275.0268689520972</v>
       </c>
       <c r="M29" t="n">
-        <v>306.0203837136062</v>
+        <v>306.0203837136063</v>
       </c>
       <c r="N29" t="n">
-        <v>310.9721134565535</v>
+        <v>310.9721134565536</v>
       </c>
       <c r="O29" t="n">
-        <v>293.6421486060716</v>
+        <v>293.6421486060717</v>
       </c>
       <c r="P29" t="n">
         <v>250.6167801840708</v>
       </c>
       <c r="Q29" t="n">
-        <v>188.2027647263328</v>
+        <v>188.2027647263329</v>
       </c>
       <c r="R29" t="n">
         <v>109.4761437625726</v>
       </c>
       <c r="S29" t="n">
-        <v>39.71404892825698</v>
+        <v>39.71404892825699</v>
       </c>
       <c r="T29" t="n">
-        <v>7.6291058336125</v>
+        <v>7.629105833612503</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1394239786839519</v>
+        <v>0.139423978683952</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9324800649835308</v>
+        <v>0.9324800649835312</v>
       </c>
       <c r="H30" t="n">
-        <v>9.005794311814627</v>
+        <v>9.005794311814631</v>
       </c>
       <c r="I30" t="n">
-        <v>32.10512504438911</v>
+        <v>32.10512504438913</v>
       </c>
       <c r="J30" t="n">
-        <v>88.09891701671158</v>
+        <v>88.09891701671161</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>150.5750813706082</v>
       </c>
       <c r="L30" t="n">
-        <v>202.4667790219723</v>
+        <v>202.4667790219724</v>
       </c>
       <c r="M30" t="n">
-        <v>196.250598365644</v>
+        <v>223.693083781981</v>
       </c>
       <c r="N30" t="n">
-        <v>212.9007619432959</v>
+        <v>212.900761943296</v>
       </c>
       <c r="O30" t="n">
-        <v>221.8607284436912</v>
+        <v>181.6846006311053</v>
       </c>
       <c r="P30" t="n">
-        <v>178.0627941633902</v>
+        <v>178.0627941633903</v>
       </c>
       <c r="Q30" t="n">
-        <v>119.0302623301784</v>
+        <v>119.0302623301785</v>
       </c>
       <c r="R30" t="n">
-        <v>57.89556052590731</v>
+        <v>57.89556052590734</v>
       </c>
       <c r="S30" t="n">
-        <v>17.32040822458443</v>
+        <v>17.32040822458444</v>
       </c>
       <c r="T30" t="n">
-        <v>3.758549033859055</v>
+        <v>3.758549033859056</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06134737269628494</v>
+        <v>0.06134737269628497</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,19 +33330,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.781759962446647</v>
+        <v>0.7817599624466474</v>
       </c>
       <c r="H31" t="n">
-        <v>6.950556757025649</v>
+        <v>6.950556757025652</v>
       </c>
       <c r="I31" t="n">
-        <v>23.50965414339554</v>
+        <v>23.50965414339555</v>
       </c>
       <c r="J31" t="n">
-        <v>55.27042934497795</v>
+        <v>55.27042934497797</v>
       </c>
       <c r="K31" t="n">
-        <v>90.82629381880135</v>
+        <v>90.82629381880137</v>
       </c>
       <c r="L31" t="n">
         <v>116.2263856895679</v>
@@ -33351,28 +33351,28 @@
         <v>122.5444275678867</v>
       </c>
       <c r="N31" t="n">
-        <v>119.6305949805856</v>
+        <v>119.6305949805857</v>
       </c>
       <c r="O31" t="n">
-        <v>110.4982172374588</v>
+        <v>110.4982172374589</v>
       </c>
       <c r="P31" t="n">
-        <v>94.55031400354717</v>
+        <v>94.5503140035472</v>
       </c>
       <c r="Q31" t="n">
-        <v>65.46173649178243</v>
+        <v>65.46173649178245</v>
       </c>
       <c r="R31" t="n">
-        <v>35.15077067510105</v>
+        <v>35.15077067510106</v>
       </c>
       <c r="S31" t="n">
         <v>13.6239440728202</v>
       </c>
       <c r="T31" t="n">
-        <v>3.340247112272037</v>
+        <v>3.340247112272038</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04264145249708989</v>
+        <v>0.04264145249708991</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.742799733549399</v>
+        <v>1.7427997335494</v>
       </c>
       <c r="H32" t="n">
-        <v>17.84844777121279</v>
+        <v>17.8484477712128</v>
       </c>
       <c r="I32" t="n">
-        <v>67.18928672766329</v>
+        <v>67.18928672766332</v>
       </c>
       <c r="J32" t="n">
         <v>147.9179488853385</v>
       </c>
       <c r="K32" t="n">
-        <v>221.6906616064846</v>
+        <v>221.6906616064847</v>
       </c>
       <c r="L32" t="n">
-        <v>275.0268689520971</v>
+        <v>275.0268689520972</v>
       </c>
       <c r="M32" t="n">
-        <v>306.0203837136062</v>
+        <v>306.0203837136063</v>
       </c>
       <c r="N32" t="n">
-        <v>310.9721134565535</v>
+        <v>310.9721134565536</v>
       </c>
       <c r="O32" t="n">
-        <v>293.6421486060716</v>
+        <v>293.6421486060717</v>
       </c>
       <c r="P32" t="n">
         <v>250.6167801840708</v>
       </c>
       <c r="Q32" t="n">
-        <v>188.2027647263328</v>
+        <v>188.2027647263329</v>
       </c>
       <c r="R32" t="n">
         <v>109.4761437625726</v>
       </c>
       <c r="S32" t="n">
-        <v>39.71404892825698</v>
+        <v>39.71404892825699</v>
       </c>
       <c r="T32" t="n">
-        <v>7.6291058336125</v>
+        <v>7.629105833612503</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1394239786839519</v>
+        <v>0.139423978683952</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9324800649835308</v>
+        <v>0.9324800649835312</v>
       </c>
       <c r="H33" t="n">
-        <v>9.005794311814627</v>
+        <v>9.005794311814631</v>
       </c>
       <c r="I33" t="n">
-        <v>32.10512504438911</v>
+        <v>32.10512504438913</v>
       </c>
       <c r="J33" t="n">
-        <v>88.09891701671158</v>
+        <v>88.09891701671161</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5750813706081</v>
+        <v>150.5750813706082</v>
       </c>
       <c r="L33" t="n">
-        <v>202.4667790219723</v>
+        <v>202.4667790219724</v>
       </c>
       <c r="M33" t="n">
-        <v>183.5169559693949</v>
+        <v>223.693083781981</v>
       </c>
       <c r="N33" t="n">
-        <v>212.9007619432959</v>
+        <v>172.7246341307099</v>
       </c>
       <c r="O33" t="n">
-        <v>221.8607284436912</v>
+        <v>221.8607284436913</v>
       </c>
       <c r="P33" t="n">
-        <v>178.0627941633902</v>
+        <v>178.0627941633903</v>
       </c>
       <c r="Q33" t="n">
-        <v>119.0302623301784</v>
+        <v>119.0302623301785</v>
       </c>
       <c r="R33" t="n">
-        <v>57.89556052590731</v>
+        <v>57.89556052590734</v>
       </c>
       <c r="S33" t="n">
-        <v>17.32040822458443</v>
+        <v>17.32040822458444</v>
       </c>
       <c r="T33" t="n">
-        <v>3.758549033859055</v>
+        <v>3.758549033859056</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06134737269628494</v>
+        <v>0.06134737269628497</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,19 +33567,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.781759962446647</v>
+        <v>0.7817599624466474</v>
       </c>
       <c r="H34" t="n">
-        <v>6.950556757025649</v>
+        <v>6.950556757025652</v>
       </c>
       <c r="I34" t="n">
-        <v>23.50965414339554</v>
+        <v>23.50965414339555</v>
       </c>
       <c r="J34" t="n">
-        <v>55.27042934497795</v>
+        <v>55.27042934497797</v>
       </c>
       <c r="K34" t="n">
-        <v>90.82629381880135</v>
+        <v>90.82629381880137</v>
       </c>
       <c r="L34" t="n">
         <v>116.2263856895679</v>
@@ -33588,28 +33588,28 @@
         <v>122.5444275678867</v>
       </c>
       <c r="N34" t="n">
-        <v>119.6305949805856</v>
+        <v>119.6305949805857</v>
       </c>
       <c r="O34" t="n">
-        <v>110.4982172374588</v>
+        <v>110.4982172374589</v>
       </c>
       <c r="P34" t="n">
-        <v>94.55031400354717</v>
+        <v>94.5503140035472</v>
       </c>
       <c r="Q34" t="n">
-        <v>65.46173649178243</v>
+        <v>65.46173649178245</v>
       </c>
       <c r="R34" t="n">
-        <v>35.15077067510105</v>
+        <v>35.15077067510106</v>
       </c>
       <c r="S34" t="n">
         <v>13.6239440728202</v>
       </c>
       <c r="T34" t="n">
-        <v>3.340247112272037</v>
+        <v>3.340247112272038</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04264145249708989</v>
+        <v>0.04264145249708991</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.742799733549399</v>
+        <v>1.7427997335494</v>
       </c>
       <c r="H35" t="n">
-        <v>17.84844777121279</v>
+        <v>17.8484477712128</v>
       </c>
       <c r="I35" t="n">
-        <v>67.18928672766329</v>
+        <v>67.18928672766332</v>
       </c>
       <c r="J35" t="n">
         <v>147.9179488853385</v>
       </c>
       <c r="K35" t="n">
-        <v>221.6906616064846</v>
+        <v>221.6906616064847</v>
       </c>
       <c r="L35" t="n">
-        <v>275.0268689520971</v>
+        <v>275.0268689520972</v>
       </c>
       <c r="M35" t="n">
-        <v>293.8901704116578</v>
+        <v>293.8901704116577</v>
       </c>
       <c r="N35" t="n">
-        <v>292.957000780976</v>
+        <v>292.9570007809759</v>
       </c>
       <c r="O35" t="n">
-        <v>293.6421486060716</v>
+        <v>293.6421486060717</v>
       </c>
       <c r="P35" t="n">
         <v>250.6167801840708</v>
       </c>
       <c r="Q35" t="n">
-        <v>188.2027647263328</v>
+        <v>188.2027647263329</v>
       </c>
       <c r="R35" t="n">
         <v>109.4761437625726</v>
       </c>
       <c r="S35" t="n">
-        <v>39.71404892825698</v>
+        <v>39.71404892825699</v>
       </c>
       <c r="T35" t="n">
-        <v>7.6291058336125</v>
+        <v>7.629105833612503</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1394239786839519</v>
+        <v>0.139423978683952</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9324800649835308</v>
+        <v>0.9324800649835312</v>
       </c>
       <c r="H36" t="n">
-        <v>9.005794311814627</v>
+        <v>9.005794311814631</v>
       </c>
       <c r="I36" t="n">
-        <v>32.10512504438911</v>
+        <v>32.10512504438913</v>
       </c>
       <c r="J36" t="n">
-        <v>88.09891701671158</v>
+        <v>88.09891701671161</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>150.5750813706082</v>
       </c>
       <c r="L36" t="n">
-        <v>202.0983169642593</v>
+        <v>202.0983169642592</v>
       </c>
       <c r="M36" t="n">
-        <v>205.6779711064034</v>
+        <v>205.6779711064033</v>
       </c>
       <c r="N36" t="n">
-        <v>194.8856492677184</v>
+        <v>194.8856492677183</v>
       </c>
       <c r="O36" t="n">
-        <v>159.4843630743399</v>
+        <v>190.8391074271506</v>
       </c>
       <c r="P36" t="n">
-        <v>178.0627941633902</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>119.0302623301784</v>
+        <v>119.0302623301785</v>
       </c>
       <c r="R36" t="n">
-        <v>57.89556052590731</v>
+        <v>57.89556052590734</v>
       </c>
       <c r="S36" t="n">
-        <v>17.32040822458443</v>
+        <v>17.32040822458444</v>
       </c>
       <c r="T36" t="n">
-        <v>3.758549033859055</v>
+        <v>3.758549033859056</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06134737269628494</v>
+        <v>0.06134737269628497</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,19 +33804,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.781759962446647</v>
+        <v>0.7817599624466474</v>
       </c>
       <c r="H37" t="n">
-        <v>6.950556757025649</v>
+        <v>6.950556757025652</v>
       </c>
       <c r="I37" t="n">
-        <v>23.50965414339554</v>
+        <v>23.50965414339555</v>
       </c>
       <c r="J37" t="n">
-        <v>55.27042934497795</v>
+        <v>55.27042934497797</v>
       </c>
       <c r="K37" t="n">
-        <v>90.82629381880135</v>
+        <v>90.82629381880137</v>
       </c>
       <c r="L37" t="n">
         <v>116.2263856895679</v>
@@ -33825,28 +33825,28 @@
         <v>122.5444275678867</v>
       </c>
       <c r="N37" t="n">
-        <v>119.6305949805856</v>
+        <v>119.6305949805857</v>
       </c>
       <c r="O37" t="n">
-        <v>110.4982172374588</v>
+        <v>110.4982172374589</v>
       </c>
       <c r="P37" t="n">
-        <v>94.55031400354717</v>
+        <v>94.5503140035472</v>
       </c>
       <c r="Q37" t="n">
-        <v>65.46173649178243</v>
+        <v>65.46173649178245</v>
       </c>
       <c r="R37" t="n">
-        <v>35.15077067510105</v>
+        <v>35.15077067510106</v>
       </c>
       <c r="S37" t="n">
         <v>13.6239440728202</v>
       </c>
       <c r="T37" t="n">
-        <v>3.340247112272037</v>
+        <v>3.340247112272038</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04264145249708989</v>
+        <v>0.04264145249708991</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.742799733549399</v>
+        <v>1.7427997335494</v>
       </c>
       <c r="H38" t="n">
-        <v>17.84844777121279</v>
+        <v>17.8484477712128</v>
       </c>
       <c r="I38" t="n">
-        <v>67.18928672766329</v>
+        <v>67.18928672766332</v>
       </c>
       <c r="J38" t="n">
         <v>147.9179488853385</v>
       </c>
       <c r="K38" t="n">
-        <v>221.6906616064846</v>
+        <v>221.6906616064847</v>
       </c>
       <c r="L38" t="n">
-        <v>275.0268689520971</v>
+        <v>275.0268689520972</v>
       </c>
       <c r="M38" t="n">
-        <v>293.8901704116576</v>
+        <v>293.8901704116577</v>
       </c>
       <c r="N38" t="n">
-        <v>292.9570007809758</v>
+        <v>292.9570007809759</v>
       </c>
       <c r="O38" t="n">
-        <v>293.6421486060716</v>
+        <v>293.6421486060717</v>
       </c>
       <c r="P38" t="n">
         <v>250.6167801840708</v>
       </c>
       <c r="Q38" t="n">
-        <v>188.2027647263328</v>
+        <v>188.2027647263329</v>
       </c>
       <c r="R38" t="n">
         <v>109.4761437625726</v>
       </c>
       <c r="S38" t="n">
-        <v>39.71404892825698</v>
+        <v>39.71404892825699</v>
       </c>
       <c r="T38" t="n">
-        <v>7.6291058336125</v>
+        <v>7.629105833612503</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1394239786839519</v>
+        <v>0.139423978683952</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9324800649835308</v>
+        <v>0.9324800649835312</v>
       </c>
       <c r="H39" t="n">
-        <v>9.005794311814627</v>
+        <v>9.005794311814631</v>
       </c>
       <c r="I39" t="n">
-        <v>32.10512504438911</v>
+        <v>32.10512504438913</v>
       </c>
       <c r="J39" t="n">
-        <v>88.09891701671158</v>
+        <v>88.09891701671161</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5750813706081</v>
+        <v>150.5750813706082</v>
       </c>
       <c r="L39" t="n">
-        <v>202.0983169642591</v>
+        <v>202.0983169642592</v>
       </c>
       <c r="M39" t="n">
-        <v>205.6779711064032</v>
+        <v>205.6779711064033</v>
       </c>
       <c r="N39" t="n">
-        <v>194.8856492677182</v>
+        <v>194.8856492677183</v>
       </c>
       <c r="O39" t="n">
         <v>146.7507206780905</v>
       </c>
       <c r="P39" t="n">
-        <v>178.0627941633902</v>
+        <v>178.0627941633903</v>
       </c>
       <c r="Q39" t="n">
-        <v>119.0302623301784</v>
+        <v>119.0302623301785</v>
       </c>
       <c r="R39" t="n">
-        <v>57.89556052590731</v>
+        <v>57.89556052590734</v>
       </c>
       <c r="S39" t="n">
-        <v>17.32040822458443</v>
+        <v>17.32040822458444</v>
       </c>
       <c r="T39" t="n">
-        <v>3.758549033859055</v>
+        <v>3.758549033859056</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06134737269628494</v>
+        <v>0.06134737269628497</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,19 +34041,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.781759962446647</v>
+        <v>0.7817599624466474</v>
       </c>
       <c r="H40" t="n">
-        <v>6.950556757025649</v>
+        <v>6.950556757025652</v>
       </c>
       <c r="I40" t="n">
-        <v>23.50965414339554</v>
+        <v>23.50965414339555</v>
       </c>
       <c r="J40" t="n">
-        <v>55.27042934497795</v>
+        <v>55.27042934497797</v>
       </c>
       <c r="K40" t="n">
-        <v>90.82629381880135</v>
+        <v>90.82629381880137</v>
       </c>
       <c r="L40" t="n">
         <v>116.2263856895679</v>
@@ -34062,28 +34062,28 @@
         <v>122.5444275678867</v>
       </c>
       <c r="N40" t="n">
-        <v>119.6305949805856</v>
+        <v>119.6305949805857</v>
       </c>
       <c r="O40" t="n">
-        <v>110.4982172374588</v>
+        <v>110.4982172374589</v>
       </c>
       <c r="P40" t="n">
-        <v>94.55031400354717</v>
+        <v>94.5503140035472</v>
       </c>
       <c r="Q40" t="n">
-        <v>65.46173649178243</v>
+        <v>65.46173649178245</v>
       </c>
       <c r="R40" t="n">
-        <v>35.15077067510105</v>
+        <v>35.15077067510106</v>
       </c>
       <c r="S40" t="n">
         <v>13.6239440728202</v>
       </c>
       <c r="T40" t="n">
-        <v>3.340247112272037</v>
+        <v>3.340247112272038</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04264145249708989</v>
+        <v>0.04264145249708991</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.742799733549399</v>
+        <v>1.7427997335494</v>
       </c>
       <c r="H41" t="n">
-        <v>17.84844777121279</v>
+        <v>17.8484477712128</v>
       </c>
       <c r="I41" t="n">
-        <v>67.18928672766329</v>
+        <v>67.18928672766332</v>
       </c>
       <c r="J41" t="n">
         <v>147.9179488853385</v>
       </c>
       <c r="K41" t="n">
-        <v>221.6906616064846</v>
+        <v>221.6906616064847</v>
       </c>
       <c r="L41" t="n">
-        <v>275.0268689520971</v>
+        <v>275.0268689520972</v>
       </c>
       <c r="M41" t="n">
-        <v>293.8901704116576</v>
+        <v>293.8901704116577</v>
       </c>
       <c r="N41" t="n">
-        <v>292.9570007809758</v>
+        <v>292.9570007809759</v>
       </c>
       <c r="O41" t="n">
-        <v>293.6421486060716</v>
+        <v>293.6421486060717</v>
       </c>
       <c r="P41" t="n">
         <v>250.6167801840708</v>
       </c>
       <c r="Q41" t="n">
-        <v>188.2027647263328</v>
+        <v>188.2027647263329</v>
       </c>
       <c r="R41" t="n">
         <v>109.4761437625726</v>
       </c>
       <c r="S41" t="n">
-        <v>39.71404892825698</v>
+        <v>39.71404892825699</v>
       </c>
       <c r="T41" t="n">
-        <v>7.6291058336125</v>
+        <v>7.629105833612503</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1394239786839519</v>
+        <v>0.139423978683952</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9324800649835308</v>
+        <v>0.9324800649835312</v>
       </c>
       <c r="H42" t="n">
-        <v>9.005794311814627</v>
+        <v>9.005794311814631</v>
       </c>
       <c r="I42" t="n">
-        <v>32.10512504438911</v>
+        <v>32.10512504438913</v>
       </c>
       <c r="J42" t="n">
-        <v>88.09891701671158</v>
+        <v>88.09891701671161</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5750813706081</v>
+        <v>150.5750813706082</v>
       </c>
       <c r="L42" t="n">
-        <v>202.0983169642591</v>
+        <v>142.7088560135203</v>
       </c>
       <c r="M42" t="n">
-        <v>205.6779711064032</v>
+        <v>205.6779711064033</v>
       </c>
       <c r="N42" t="n">
-        <v>194.8856492677182</v>
+        <v>194.8856492677183</v>
       </c>
       <c r="O42" t="n">
-        <v>146.7507206780905</v>
+        <v>206.1401816288294</v>
       </c>
       <c r="P42" t="n">
-        <v>178.0627941633902</v>
+        <v>178.0627941633903</v>
       </c>
       <c r="Q42" t="n">
-        <v>119.0302623301784</v>
+        <v>119.0302623301785</v>
       </c>
       <c r="R42" t="n">
-        <v>57.89556052590731</v>
+        <v>57.89556052590734</v>
       </c>
       <c r="S42" t="n">
-        <v>17.32040822458443</v>
+        <v>17.32040822458444</v>
       </c>
       <c r="T42" t="n">
-        <v>3.758549033859055</v>
+        <v>3.758549033859056</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06134737269628494</v>
+        <v>0.06134737269628497</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,19 +34278,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.781759962446647</v>
+        <v>0.7817599624466474</v>
       </c>
       <c r="H43" t="n">
-        <v>6.950556757025649</v>
+        <v>6.950556757025652</v>
       </c>
       <c r="I43" t="n">
-        <v>23.50965414339554</v>
+        <v>23.50965414339555</v>
       </c>
       <c r="J43" t="n">
-        <v>55.27042934497795</v>
+        <v>55.27042934497797</v>
       </c>
       <c r="K43" t="n">
-        <v>90.82629381880135</v>
+        <v>90.82629381880137</v>
       </c>
       <c r="L43" t="n">
         <v>116.2263856895679</v>
@@ -34299,28 +34299,28 @@
         <v>122.5444275678867</v>
       </c>
       <c r="N43" t="n">
-        <v>119.6305949805856</v>
+        <v>119.6305949805857</v>
       </c>
       <c r="O43" t="n">
-        <v>110.4982172374588</v>
+        <v>110.4982172374589</v>
       </c>
       <c r="P43" t="n">
-        <v>94.55031400354717</v>
+        <v>94.5503140035472</v>
       </c>
       <c r="Q43" t="n">
-        <v>65.46173649178243</v>
+        <v>65.46173649178245</v>
       </c>
       <c r="R43" t="n">
-        <v>35.15077067510105</v>
+        <v>35.15077067510106</v>
       </c>
       <c r="S43" t="n">
         <v>13.6239440728202</v>
       </c>
       <c r="T43" t="n">
-        <v>3.340247112272037</v>
+        <v>3.340247112272038</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04264145249708989</v>
+        <v>0.04264145249708991</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.742799733549399</v>
+        <v>1.7427997335494</v>
       </c>
       <c r="H44" t="n">
-        <v>17.84844777121279</v>
+        <v>17.8484477712128</v>
       </c>
       <c r="I44" t="n">
-        <v>67.18928672766329</v>
+        <v>67.18928672766332</v>
       </c>
       <c r="J44" t="n">
         <v>147.9179488853385</v>
       </c>
       <c r="K44" t="n">
-        <v>221.6906616064846</v>
+        <v>221.6906616064847</v>
       </c>
       <c r="L44" t="n">
-        <v>275.0268689520971</v>
+        <v>275.0268689520972</v>
       </c>
       <c r="M44" t="n">
-        <v>281.759957109709</v>
+        <v>270.851309842662</v>
       </c>
       <c r="N44" t="n">
-        <v>269.9181402119803</v>
+        <v>280.8267874790273</v>
       </c>
       <c r="O44" t="n">
-        <v>281.511935304123</v>
+        <v>281.5119353041231</v>
       </c>
       <c r="P44" t="n">
         <v>250.6167801840708</v>
       </c>
       <c r="Q44" t="n">
-        <v>188.2027647263328</v>
+        <v>188.2027647263329</v>
       </c>
       <c r="R44" t="n">
         <v>109.4761437625726</v>
       </c>
       <c r="S44" t="n">
-        <v>39.71404892825698</v>
+        <v>39.71404892825699</v>
       </c>
       <c r="T44" t="n">
-        <v>7.6291058336125</v>
+        <v>7.629105833612503</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1394239786839519</v>
+        <v>0.139423978683952</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.9324800649835308</v>
+        <v>0.9324800649835312</v>
       </c>
       <c r="H45" t="n">
-        <v>9.005794311814627</v>
+        <v>9.005794311814631</v>
       </c>
       <c r="I45" t="n">
-        <v>32.10512504438911</v>
+        <v>32.10512504438913</v>
       </c>
       <c r="J45" t="n">
-        <v>88.09891701671158</v>
+        <v>88.09891701671161</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5750813706081</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>189.9681036623105</v>
+        <v>189.9681036623106</v>
       </c>
       <c r="M45" t="n">
-        <v>193.5477578044546</v>
+        <v>193.5477578044547</v>
       </c>
       <c r="N45" t="n">
-        <v>175.2698085258286</v>
+        <v>182.7554359657697</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>191.9326461498127</v>
       </c>
       <c r="P45" t="n">
-        <v>178.0627941633902</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>119.0302623301784</v>
+        <v>119.0302623301785</v>
       </c>
       <c r="R45" t="n">
-        <v>57.89556052590731</v>
+        <v>57.89556052590734</v>
       </c>
       <c r="S45" t="n">
-        <v>17.32040822458443</v>
+        <v>17.32040822458444</v>
       </c>
       <c r="T45" t="n">
-        <v>3.758549033859055</v>
+        <v>3.758549033859056</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06134737269628494</v>
+        <v>0.06134737269628497</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,19 +34515,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.781759962446647</v>
+        <v>0.7817599624466474</v>
       </c>
       <c r="H46" t="n">
-        <v>6.950556757025649</v>
+        <v>6.950556757025652</v>
       </c>
       <c r="I46" t="n">
-        <v>23.50965414339554</v>
+        <v>23.50965414339555</v>
       </c>
       <c r="J46" t="n">
-        <v>55.27042934497795</v>
+        <v>55.27042934497797</v>
       </c>
       <c r="K46" t="n">
-        <v>90.82629381880135</v>
+        <v>90.82629381880137</v>
       </c>
       <c r="L46" t="n">
         <v>116.2263856895679</v>
@@ -34536,28 +34536,28 @@
         <v>122.5444275678867</v>
       </c>
       <c r="N46" t="n">
-        <v>119.6305949805856</v>
+        <v>119.6305949805857</v>
       </c>
       <c r="O46" t="n">
-        <v>110.4982172374588</v>
+        <v>110.4982172374589</v>
       </c>
       <c r="P46" t="n">
-        <v>94.55031400354717</v>
+        <v>94.5503140035472</v>
       </c>
       <c r="Q46" t="n">
-        <v>65.46173649178243</v>
+        <v>65.46173649178245</v>
       </c>
       <c r="R46" t="n">
-        <v>35.15077067510105</v>
+        <v>35.15077067510106</v>
       </c>
       <c r="S46" t="n">
         <v>13.6239440728202</v>
       </c>
       <c r="T46" t="n">
-        <v>3.340247112272037</v>
+        <v>3.340247112272038</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04264145249708989</v>
+        <v>0.04264145249708991</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35410,22 +35410,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>1.600810561504034</v>
+        <v>1.600810561504119</v>
       </c>
       <c r="L11" t="n">
-        <v>39.26045398210982</v>
+        <v>39.26045398210994</v>
       </c>
       <c r="M11" t="n">
-        <v>63.54393718438487</v>
+        <v>63.54393718438497</v>
       </c>
       <c r="N11" t="n">
-        <v>63.54393718438487</v>
+        <v>63.54393718438497</v>
       </c>
       <c r="O11" t="n">
-        <v>63.54393718438487</v>
+        <v>63.54393718438497</v>
       </c>
       <c r="P11" t="n">
-        <v>19.38378442880122</v>
+        <v>19.38378442880131</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>12.73364239624919</v>
       </c>
       <c r="L12" t="n">
-        <v>63.54393718438487</v>
+        <v>4.154476233646086</v>
       </c>
       <c r="M12" t="n">
-        <v>63.54393718438487</v>
+        <v>63.54393718438497</v>
       </c>
       <c r="N12" t="n">
-        <v>63.54393718438487</v>
+        <v>63.54393718438497</v>
       </c>
       <c r="O12" t="n">
-        <v>16.88811862989521</v>
+        <v>63.54393718438497</v>
       </c>
       <c r="P12" t="n">
-        <v>44.08838674905996</v>
+        <v>44.08838674906002</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35647,22 +35647,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>1.600810561504034</v>
+        <v>1.600810561504119</v>
       </c>
       <c r="L14" t="n">
-        <v>39.26045398210982</v>
+        <v>39.26045398210994</v>
       </c>
       <c r="M14" t="n">
-        <v>63.54393718438487</v>
+        <v>63.54393718438497</v>
       </c>
       <c r="N14" t="n">
-        <v>63.54393718438487</v>
+        <v>63.54393718438497</v>
       </c>
       <c r="O14" t="n">
-        <v>63.54393718438487</v>
+        <v>63.54393718438499</v>
       </c>
       <c r="P14" t="n">
-        <v>19.38378442880122</v>
+        <v>19.38378442880131</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>12.73364239624919</v>
       </c>
       <c r="L15" t="n">
-        <v>63.54393718438487</v>
+        <v>63.54393718438497</v>
       </c>
       <c r="M15" t="n">
-        <v>16.88811862989522</v>
+        <v>63.54393718438497</v>
       </c>
       <c r="N15" t="n">
-        <v>63.54393718438487</v>
+        <v>63.54393718438497</v>
       </c>
       <c r="O15" t="n">
-        <v>63.54393718438487</v>
+        <v>4.154476233646054</v>
       </c>
       <c r="P15" t="n">
-        <v>44.08838674905996</v>
+        <v>44.08838674906002</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35884,22 +35884,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>1.600810561504034</v>
+        <v>1.600810561504119</v>
       </c>
       <c r="L17" t="n">
-        <v>39.26045398210982</v>
+        <v>39.26045398210994</v>
       </c>
       <c r="M17" t="n">
-        <v>63.54393718438487</v>
+        <v>63.54393718438497</v>
       </c>
       <c r="N17" t="n">
-        <v>63.54393718438487</v>
+        <v>63.54393718438497</v>
       </c>
       <c r="O17" t="n">
-        <v>63.54393718438487</v>
+        <v>63.54393718438497</v>
       </c>
       <c r="P17" t="n">
-        <v>19.38378442880122</v>
+        <v>19.38378442880131</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35966,19 +35966,19 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>16.88811862989522</v>
+        <v>63.54393718438497</v>
       </c>
       <c r="M18" t="n">
-        <v>63.54393718438487</v>
+        <v>63.54393718438497</v>
       </c>
       <c r="N18" t="n">
-        <v>63.54393718438487</v>
+        <v>60.97650537895527</v>
       </c>
       <c r="O18" t="n">
-        <v>63.54393718438487</v>
+        <v>63.54393718438497</v>
       </c>
       <c r="P18" t="n">
-        <v>44.08838674905996</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36121,22 +36121,22 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>1.600810561504034</v>
+        <v>1.600810561504119</v>
       </c>
       <c r="L20" t="n">
-        <v>39.26045398210982</v>
+        <v>39.26045398210994</v>
       </c>
       <c r="M20" t="n">
-        <v>75.67415048633345</v>
+        <v>75.67415048633357</v>
       </c>
       <c r="N20" t="n">
-        <v>75.67415048633345</v>
+        <v>75.67415048633357</v>
       </c>
       <c r="O20" t="n">
-        <v>63.54393718438487</v>
+        <v>63.54393718438499</v>
       </c>
       <c r="P20" t="n">
-        <v>19.38378442880122</v>
+        <v>19.38378442880131</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36200,22 +36200,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>12.73364239624914</v>
+        <v>12.73364239624919</v>
       </c>
       <c r="L21" t="n">
-        <v>63.91239924209816</v>
+        <v>63.91239924209825</v>
       </c>
       <c r="M21" t="n">
-        <v>75.67415048633345</v>
+        <v>75.67415048633357</v>
       </c>
       <c r="N21" t="n">
-        <v>75.67415048633345</v>
+        <v>75.67415048633357</v>
       </c>
       <c r="O21" t="n">
-        <v>27.55633115146837</v>
+        <v>27.55633115146842</v>
       </c>
       <c r="P21" t="n">
-        <v>44.08838674905996</v>
+        <v>44.08838674906002</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36358,22 +36358,22 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>1.600810561504034</v>
+        <v>1.600810561504119</v>
       </c>
       <c r="L23" t="n">
-        <v>39.26045398210982</v>
+        <v>39.26045398210994</v>
       </c>
       <c r="M23" t="n">
-        <v>75.67415048633345</v>
+        <v>75.67415048633356</v>
       </c>
       <c r="N23" t="n">
-        <v>81.55904985996256</v>
+        <v>81.55904985996267</v>
       </c>
       <c r="O23" t="n">
-        <v>63.54393718438487</v>
+        <v>63.54393718438499</v>
       </c>
       <c r="P23" t="n">
-        <v>19.38378442880122</v>
+        <v>19.38378442880131</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>12.73364239624919</v>
       </c>
       <c r="L24" t="n">
-        <v>63.91239924209816</v>
+        <v>63.91239924209825</v>
       </c>
       <c r="M24" t="n">
-        <v>81.55904985996256</v>
+        <v>81.55904985996267</v>
       </c>
       <c r="N24" t="n">
-        <v>81.55904985996256</v>
+        <v>41.38292204737662</v>
       </c>
       <c r="O24" t="n">
-        <v>51.82199858290995</v>
+        <v>79.26448399924683</v>
       </c>
       <c r="P24" t="n">
-        <v>44.08838674905996</v>
+        <v>44.08838674906002</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36595,22 +36595,22 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>1.600810561504034</v>
+        <v>1.600810561504119</v>
       </c>
       <c r="L26" t="n">
-        <v>39.26045398210982</v>
+        <v>39.26045398210994</v>
       </c>
       <c r="M26" t="n">
-        <v>75.67415048633345</v>
+        <v>75.67415048633356</v>
       </c>
       <c r="N26" t="n">
-        <v>81.55904985996256</v>
+        <v>81.55904985996267</v>
       </c>
       <c r="O26" t="n">
-        <v>63.54393718438487</v>
+        <v>63.54393718438499</v>
       </c>
       <c r="P26" t="n">
-        <v>19.38378442880122</v>
+        <v>19.38378442880131</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36674,22 +36674,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>12.73364239624914</v>
+        <v>12.73364239624919</v>
       </c>
       <c r="L27" t="n">
-        <v>63.91239924209816</v>
+        <v>63.91239924209825</v>
       </c>
       <c r="M27" t="n">
-        <v>81.55904985996256</v>
+        <v>81.55904985996267</v>
       </c>
       <c r="N27" t="n">
-        <v>81.55904985996256</v>
+        <v>41.38292204737662</v>
       </c>
       <c r="O27" t="n">
-        <v>39.08835618666077</v>
+        <v>79.26448399924683</v>
       </c>
       <c r="P27" t="n">
-        <v>44.08838674905996</v>
+        <v>44.08838674906002</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36832,22 +36832,22 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>1.600810561504034</v>
+        <v>1.600810561504119</v>
       </c>
       <c r="L29" t="n">
-        <v>39.26045398210982</v>
+        <v>39.26045398210994</v>
       </c>
       <c r="M29" t="n">
-        <v>75.67415048633345</v>
+        <v>75.67415048633356</v>
       </c>
       <c r="N29" t="n">
-        <v>81.55904985996256</v>
+        <v>81.55904985996267</v>
       </c>
       <c r="O29" t="n">
-        <v>63.54393718438487</v>
+        <v>63.54393718438499</v>
       </c>
       <c r="P29" t="n">
-        <v>19.38378442880122</v>
+        <v>19.38378442880131</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36911,22 +36911,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>12.73364239624919</v>
       </c>
       <c r="L30" t="n">
-        <v>63.91239924209816</v>
+        <v>63.91239924209825</v>
       </c>
       <c r="M30" t="n">
-        <v>54.11656444362573</v>
+        <v>81.55904985996267</v>
       </c>
       <c r="N30" t="n">
-        <v>81.55904985996256</v>
+        <v>81.55904985996267</v>
       </c>
       <c r="O30" t="n">
-        <v>79.26448399924675</v>
+        <v>39.08835618666082</v>
       </c>
       <c r="P30" t="n">
-        <v>44.08838674905996</v>
+        <v>44.08838674906002</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37069,22 +37069,22 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>1.600810561504034</v>
+        <v>1.600810561504119</v>
       </c>
       <c r="L32" t="n">
-        <v>39.26045398210982</v>
+        <v>39.26045398210994</v>
       </c>
       <c r="M32" t="n">
-        <v>75.67415048633345</v>
+        <v>75.67415048633356</v>
       </c>
       <c r="N32" t="n">
-        <v>81.55904985996256</v>
+        <v>81.55904985996267</v>
       </c>
       <c r="O32" t="n">
-        <v>63.54393718438487</v>
+        <v>63.54393718438499</v>
       </c>
       <c r="P32" t="n">
-        <v>19.38378442880122</v>
+        <v>19.38378442880131</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37148,22 +37148,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>12.73364239624914</v>
+        <v>12.73364239624919</v>
       </c>
       <c r="L33" t="n">
-        <v>63.91239924209816</v>
+        <v>63.91239924209825</v>
       </c>
       <c r="M33" t="n">
-        <v>41.38292204737659</v>
+        <v>81.55904985996267</v>
       </c>
       <c r="N33" t="n">
-        <v>81.55904985996256</v>
+        <v>41.38292204737662</v>
       </c>
       <c r="O33" t="n">
-        <v>79.26448399924675</v>
+        <v>79.26448399924683</v>
       </c>
       <c r="P33" t="n">
-        <v>44.08838674905996</v>
+        <v>44.08838674906002</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37306,22 +37306,22 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>1.600810561504034</v>
+        <v>1.600810561504119</v>
       </c>
       <c r="L35" t="n">
-        <v>39.26045398210982</v>
+        <v>39.26045398210994</v>
       </c>
       <c r="M35" t="n">
-        <v>63.54393718438507</v>
+        <v>63.54393718438499</v>
       </c>
       <c r="N35" t="n">
-        <v>63.54393718438507</v>
+        <v>63.54393718438499</v>
       </c>
       <c r="O35" t="n">
-        <v>63.54393718438487</v>
+        <v>63.54393718438499</v>
       </c>
       <c r="P35" t="n">
-        <v>19.38378442880122</v>
+        <v>19.38378442880131</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37385,22 +37385,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>12.73364239624919</v>
       </c>
       <c r="L36" t="n">
-        <v>63.54393718438507</v>
+        <v>63.54393718438499</v>
       </c>
       <c r="M36" t="n">
-        <v>63.54393718438507</v>
+        <v>63.54393718438499</v>
       </c>
       <c r="N36" t="n">
-        <v>63.54393718438507</v>
+        <v>63.54393718438499</v>
       </c>
       <c r="O36" t="n">
-        <v>16.88811862989541</v>
+        <v>48.24286298270612</v>
       </c>
       <c r="P36" t="n">
-        <v>44.08838674905996</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37543,22 +37543,22 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>1.600810561504034</v>
+        <v>1.600810561504119</v>
       </c>
       <c r="L38" t="n">
-        <v>39.26045398210982</v>
+        <v>39.26045398210994</v>
       </c>
       <c r="M38" t="n">
-        <v>63.54393718438487</v>
+        <v>63.54393718438499</v>
       </c>
       <c r="N38" t="n">
-        <v>63.54393718438487</v>
+        <v>63.54393718438499</v>
       </c>
       <c r="O38" t="n">
-        <v>63.54393718438487</v>
+        <v>63.54393718438499</v>
       </c>
       <c r="P38" t="n">
-        <v>19.38378442880122</v>
+        <v>19.38378442880131</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37622,22 +37622,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>12.73364239624914</v>
+        <v>12.73364239624919</v>
       </c>
       <c r="L39" t="n">
-        <v>63.54393718438487</v>
+        <v>63.54393718438499</v>
       </c>
       <c r="M39" t="n">
-        <v>63.54393718438487</v>
+        <v>63.54393718438499</v>
       </c>
       <c r="N39" t="n">
-        <v>63.54393718438487</v>
+        <v>63.54393718438499</v>
       </c>
       <c r="O39" t="n">
         <v>4.154476233646083</v>
       </c>
       <c r="P39" t="n">
-        <v>44.08838674905996</v>
+        <v>44.08838674906002</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37780,22 +37780,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>1.600810561504034</v>
+        <v>1.600810561504119</v>
       </c>
       <c r="L41" t="n">
-        <v>39.26045398210982</v>
+        <v>39.26045398210994</v>
       </c>
       <c r="M41" t="n">
-        <v>63.54393718438487</v>
+        <v>63.54393718438499</v>
       </c>
       <c r="N41" t="n">
-        <v>63.54393718438487</v>
+        <v>63.54393718438499</v>
       </c>
       <c r="O41" t="n">
-        <v>63.54393718438487</v>
+        <v>63.54393718438499</v>
       </c>
       <c r="P41" t="n">
-        <v>19.38378442880122</v>
+        <v>19.38378442880131</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37859,22 +37859,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>12.73364239624914</v>
+        <v>12.73364239624919</v>
       </c>
       <c r="L42" t="n">
-        <v>63.54393718438487</v>
+        <v>4.154476233646076</v>
       </c>
       <c r="M42" t="n">
-        <v>63.54393718438487</v>
+        <v>63.54393718438499</v>
       </c>
       <c r="N42" t="n">
-        <v>63.54393718438487</v>
+        <v>63.54393718438499</v>
       </c>
       <c r="O42" t="n">
-        <v>4.154476233646083</v>
+        <v>63.54393718438499</v>
       </c>
       <c r="P42" t="n">
-        <v>44.08838674905996</v>
+        <v>44.08838674906002</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38017,22 +38017,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>1.600810561504034</v>
+        <v>1.600810561504119</v>
       </c>
       <c r="L44" t="n">
-        <v>39.26045398210982</v>
+        <v>39.26045398210994</v>
       </c>
       <c r="M44" t="n">
-        <v>51.41372388243628</v>
+        <v>40.50507661538927</v>
       </c>
       <c r="N44" t="n">
-        <v>40.50507661538937</v>
+        <v>51.41372388243637</v>
       </c>
       <c r="O44" t="n">
-        <v>51.41372388243628</v>
+        <v>51.41372388243637</v>
       </c>
       <c r="P44" t="n">
-        <v>19.38378442880122</v>
+        <v>19.38378442880131</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38096,22 +38096,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>12.73364239624914</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>51.41372388243628</v>
+        <v>51.41372388243637</v>
       </c>
       <c r="M45" t="n">
-        <v>51.41372388243628</v>
+        <v>51.41372388243637</v>
       </c>
       <c r="N45" t="n">
-        <v>43.92809644249535</v>
+        <v>51.41372388243637</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>49.33640170536824</v>
       </c>
       <c r="P45" t="n">
-        <v>44.08838674905996</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
